--- a/BusyForcast/240850.xlsx
+++ b/BusyForcast/240850.xlsx
@@ -2237,57 +2237,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,6 +2279,38 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2458,184 +2458,184 @@
                 <c:formatCode>#\ ##0.00_ ;[Red]\-#\ ##0.00\ </c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-709329.39999999991</c:v>
+                  <c:v>-306599.80000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1043489.7999999998</c:v>
+                  <c:v>-580630.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1463982.5999999999</c:v>
+                  <c:v>-923675.00000000012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1704558.5999999999</c:v>
+                  <c:v>-1087105.4000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1974685.7999999998</c:v>
+                  <c:v>-1279784.6000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2215261.7999999998</c:v>
+                  <c:v>-1442912.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2455837.7999999998</c:v>
+                  <c:v>-1606040.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2684013.7999999998</c:v>
+                  <c:v>-1756768.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2924589.8</c:v>
+                  <c:v>-1919896.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3124385.8</c:v>
+                  <c:v>-2042244.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3364961.8</c:v>
+                  <c:v>-2205372.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3590997.8</c:v>
+                  <c:v>-2353960.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3590997.8</c:v>
+                  <c:v>-2353960.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3594837.122</c:v>
+                  <c:v>-2357799.9220000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3594837.122</c:v>
+                  <c:v>-2357799.9220000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3613100.6140000001</c:v>
+                  <c:v>-2376063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3613100.6140000001</c:v>
+                  <c:v>-2376063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3613100.6140000001</c:v>
+                  <c:v>-2376063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3613100.6140000001</c:v>
+                  <c:v>-2376063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3613100.6140000001</c:v>
+                  <c:v>-2376063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3613100.6140000001</c:v>
+                  <c:v>-2376063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3610100.6140000001</c:v>
+                  <c:v>-2373063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3610100.6140000001</c:v>
+                  <c:v>-2373063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3610100.6140000001</c:v>
+                  <c:v>-2373063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3610100.6140000001</c:v>
+                  <c:v>-2373063.4140000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3619251.8960000002</c:v>
+                  <c:v>-2382214.6960000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4820,58 +4820,58 @@
       </c>
       <c r="C15" s="179">
         <f>SUM(D15:BL15)</f>
-        <v>1342331.3199999998</v>
+        <v>900532.32</v>
       </c>
       <c r="D15" s="146">
         <v>43896</v>
       </c>
       <c r="E15" s="127">
         <f>Days!F222</f>
-        <v>238638</v>
+        <v>94806</v>
       </c>
       <c r="F15" s="127">
         <f>Days!G222</f>
-        <v>119343</v>
+        <v>97868</v>
       </c>
       <c r="G15" s="127">
         <f>Days!H222</f>
-        <v>150176</v>
+        <v>122516</v>
       </c>
       <c r="H15" s="127">
         <f>Days!I222</f>
-        <v>85920</v>
+        <v>58368</v>
       </c>
       <c r="I15" s="127">
         <f>Days!J222</f>
-        <v>96474</v>
+        <v>68814</v>
       </c>
       <c r="J15" s="127">
         <f>Days!K222</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="K15" s="127">
         <f>Days!L222</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="L15" s="127">
         <f>Days!M222</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="M15" s="127">
         <f>Days!N222</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="N15" s="127">
         <f>Days!O222</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="O15" s="127">
         <f>Days!P222</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="P15" s="127">
         <f>Days!Q222</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="Q15" s="127">
         <f>Days!R222</f>
@@ -5073,56 +5073,56 @@
       </c>
       <c r="C16" s="119">
         <f>SUM(E16:BM16)</f>
-        <v>2337183.5759999999</v>
+        <v>1541945.3759999999</v>
       </c>
       <c r="D16" s="146"/>
       <c r="E16" s="127">
         <f>Days!F223</f>
-        <v>429548.39999999997</v>
+        <v>170650.80000000002</v>
       </c>
       <c r="F16" s="127">
         <f>Days!G223</f>
-        <v>214817.4</v>
+        <v>176162.4</v>
       </c>
       <c r="G16" s="127">
         <f>Days!H223</f>
-        <v>270316.79999999999</v>
+        <v>220528.80000000002</v>
       </c>
       <c r="H16" s="127">
         <f>Days!I223</f>
-        <v>154656</v>
+        <v>105062.39999999999</v>
       </c>
       <c r="I16" s="127">
         <f>Days!J223</f>
-        <v>173653.2</v>
+        <v>123865.2</v>
       </c>
       <c r="J16" s="127">
         <f>Days!K223</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="K16" s="127">
         <f>Days!L223</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="L16" s="127">
         <f>Days!M223</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="M16" s="127">
         <f>Days!N223</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="N16" s="127">
         <f>Days!O223</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="O16" s="127">
         <f>Days!P223</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="P16" s="127">
         <f>Days!Q223</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="Q16" s="127">
         <f>Days!R223</f>
@@ -5738,58 +5738,58 @@
       </c>
       <c r="C18" s="119">
         <f>C16+C17+D18</f>
-        <v>2416277.5759999999</v>
+        <v>1621039.3759999999</v>
       </c>
       <c r="D18" s="146">
         <v>79094</v>
       </c>
       <c r="E18" s="127">
         <f t="shared" ref="E18:AJ18" si="4">E17+E16</f>
-        <v>429548.39999999997</v>
+        <v>170650.80000000002</v>
       </c>
       <c r="F18" s="58">
         <f t="shared" si="4"/>
-        <v>214817.4</v>
+        <v>176162.4</v>
       </c>
       <c r="G18" s="58">
         <f t="shared" si="4"/>
-        <v>270316.79999999999</v>
+        <v>220528.80000000002</v>
       </c>
       <c r="H18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>105062.39999999999</v>
       </c>
       <c r="I18" s="58">
         <f t="shared" si="4"/>
-        <v>173653.2</v>
+        <v>123865.2</v>
       </c>
       <c r="J18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="K18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="L18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="M18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="N18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="O18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="P18" s="58">
         <f t="shared" si="4"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="Q18" s="58">
         <f t="shared" si="4"/>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="C19" s="119">
         <f>C15+C18</f>
-        <v>3758608.8959999997</v>
+        <v>2521571.696</v>
       </c>
       <c r="D19" s="161">
         <f t="shared" ref="D19:BL19" si="6">D15+D18</f>
@@ -6162,51 +6162,51 @@
       </c>
       <c r="E19" s="161">
         <f t="shared" si="6"/>
-        <v>668186.39999999991</v>
+        <v>265456.80000000005</v>
       </c>
       <c r="F19" s="161">
         <f t="shared" si="6"/>
-        <v>334160.40000000002</v>
+        <v>274030.40000000002</v>
       </c>
       <c r="G19" s="161">
         <f t="shared" si="6"/>
-        <v>420492.79999999999</v>
+        <v>343044.80000000005</v>
       </c>
       <c r="H19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163430.39999999999</v>
       </c>
       <c r="I19" s="161">
         <f t="shared" si="6"/>
-        <v>270127.2</v>
+        <v>192679.2</v>
       </c>
       <c r="J19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="K19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="L19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="M19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="N19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="O19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="P19" s="161">
         <f t="shared" si="6"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="Q19" s="161">
         <f t="shared" si="6"/>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="C20" s="132">
         <f>C18/C15</f>
-        <v>1.8000604917718825</v>
+        <v>1.8000901688903292</v>
       </c>
       <c r="D20" s="132">
         <f>D18/D15</f>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="C24" s="118">
         <f>C23+C19</f>
-        <v>3775161.8959999997</v>
+        <v>2538124.696</v>
       </c>
       <c r="D24" s="162">
         <f t="shared" ref="D24:BL24" si="9">D23+D19</f>
@@ -7255,51 +7255,51 @@
       </c>
       <c r="E24" s="162">
         <f t="shared" si="9"/>
-        <v>668186.39999999991</v>
+        <v>265456.80000000005</v>
       </c>
       <c r="F24" s="162">
         <f t="shared" si="9"/>
-        <v>334160.40000000002</v>
+        <v>274030.40000000002</v>
       </c>
       <c r="G24" s="162">
         <f t="shared" si="9"/>
-        <v>420492.79999999999</v>
+        <v>343044.80000000005</v>
       </c>
       <c r="H24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163430.39999999999</v>
       </c>
       <c r="I24" s="162">
         <f t="shared" si="9"/>
-        <v>270127.2</v>
+        <v>192679.2</v>
       </c>
       <c r="J24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="K24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="L24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="M24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="N24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="O24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="P24" s="162">
         <f t="shared" si="9"/>
-        <v>240576</v>
+        <v>163128</v>
       </c>
       <c r="Q24" s="162">
         <f t="shared" si="9"/>
@@ -7503,243 +7503,243 @@
       <c r="D25" s="174"/>
       <c r="E25" s="175">
         <f>D24+E24</f>
-        <v>793829.39999999991</v>
+        <v>391099.80000000005</v>
       </c>
       <c r="F25" s="176">
         <f>E25+F24</f>
-        <v>1127989.7999999998</v>
+        <v>665130.20000000007</v>
       </c>
       <c r="G25" s="176">
         <f t="shared" ref="G25:BK25" si="10">F25+G24</f>
-        <v>1548482.5999999999</v>
+        <v>1008175.0000000001</v>
       </c>
       <c r="H25" s="176">
         <f t="shared" si="10"/>
-        <v>1789058.5999999999</v>
+        <v>1171605.4000000001</v>
       </c>
       <c r="I25" s="176">
         <f t="shared" si="10"/>
-        <v>2059185.7999999998</v>
+        <v>1364284.6</v>
       </c>
       <c r="J25" s="176">
         <f t="shared" si="10"/>
-        <v>2299761.7999999998</v>
+        <v>1527412.6</v>
       </c>
       <c r="K25" s="176">
         <f t="shared" si="10"/>
-        <v>2540337.7999999998</v>
+        <v>1690540.6</v>
       </c>
       <c r="L25" s="176">
         <f t="shared" si="10"/>
-        <v>2780913.8</v>
+        <v>1853668.6</v>
       </c>
       <c r="M25" s="176">
         <f t="shared" si="10"/>
-        <v>3021489.8</v>
+        <v>2016796.6</v>
       </c>
       <c r="N25" s="176">
         <f t="shared" si="10"/>
-        <v>3262065.8</v>
+        <v>2179924.6</v>
       </c>
       <c r="O25" s="176">
         <f t="shared" si="10"/>
-        <v>3502641.8</v>
+        <v>2343052.6</v>
       </c>
       <c r="P25" s="176">
         <f t="shared" si="10"/>
-        <v>3743217.8</v>
+        <v>2506180.6</v>
       </c>
       <c r="Q25" s="176">
         <f t="shared" si="10"/>
-        <v>3743217.8</v>
+        <v>2506180.6</v>
       </c>
       <c r="R25" s="176">
         <f t="shared" si="10"/>
-        <v>3747747.122</v>
+        <v>2510709.9220000003</v>
       </c>
       <c r="S25" s="176">
         <f t="shared" si="10"/>
-        <v>3747747.122</v>
+        <v>2510709.9220000003</v>
       </c>
       <c r="T25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="U25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="V25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="W25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="X25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="Y25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="Z25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="AA25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="AB25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="AC25" s="176">
         <f t="shared" si="10"/>
-        <v>3766010.6140000001</v>
+        <v>2528973.4140000003</v>
       </c>
       <c r="AD25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AE25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AF25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AG25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AH25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AI25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AJ25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AK25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AL25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AM25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AN25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AO25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AP25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AQ25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AR25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AS25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AT25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AU25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AV25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AW25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AX25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AY25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="AZ25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BA25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BB25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BC25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BD25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BE25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BF25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BG25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BH25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BI25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BJ25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BK25" s="176">
         <f t="shared" si="10"/>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
       <c r="BL25" s="177">
         <f>BK25+BL24</f>
-        <v>3775161.8960000002</v>
+        <v>2538124.6960000005</v>
       </c>
     </row>
     <row r="26" spans="1:227" s="124" customFormat="1" x14ac:dyDescent="0.2">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="C26" s="121">
         <f>C9-C24</f>
-        <v>-3545861.8959999997</v>
+        <v>-2308824.696</v>
       </c>
       <c r="D26" s="148">
         <f>D9-D24</f>
@@ -7757,243 +7757,243 @@
       </c>
       <c r="E26" s="137">
         <f t="shared" ref="E26:AJ26" si="11">E13-E25</f>
-        <v>-635939.39999999991</v>
+        <v>-233209.80000000005</v>
       </c>
       <c r="F26" s="122">
         <f t="shared" si="11"/>
-        <v>-970099.79999999981</v>
+        <v>-507240.20000000007</v>
       </c>
       <c r="G26" s="122">
         <f t="shared" si="11"/>
-        <v>-1390592.5999999999</v>
+        <v>-850285.00000000012</v>
       </c>
       <c r="H26" s="122">
         <f t="shared" si="11"/>
-        <v>-1631168.5999999999</v>
+        <v>-1013715.4000000001</v>
       </c>
       <c r="I26" s="122">
         <f t="shared" si="11"/>
-        <v>-1901295.7999999998</v>
+        <v>-1206394.6000000001</v>
       </c>
       <c r="J26" s="122">
         <f t="shared" si="11"/>
-        <v>-2129471.7999999998</v>
+        <v>-1357122.6</v>
       </c>
       <c r="K26" s="122">
         <f t="shared" si="11"/>
-        <v>-2370047.7999999998</v>
+        <v>-1520250.6</v>
       </c>
       <c r="L26" s="122">
         <f t="shared" si="11"/>
-        <v>-2569843.7999999998</v>
+        <v>-1642598.6</v>
       </c>
       <c r="M26" s="122">
         <f t="shared" si="11"/>
-        <v>-2810419.8</v>
+        <v>-1805726.6</v>
       </c>
       <c r="N26" s="122">
         <f t="shared" si="11"/>
-        <v>-3036455.8</v>
+        <v>-1954314.6</v>
       </c>
       <c r="O26" s="122">
         <f t="shared" si="11"/>
-        <v>-3277031.8</v>
+        <v>-2117442.6</v>
       </c>
       <c r="P26" s="122">
         <f t="shared" si="11"/>
-        <v>-3516917.8</v>
+        <v>-2279880.6</v>
       </c>
       <c r="Q26" s="122">
         <f t="shared" si="11"/>
-        <v>-3516917.8</v>
+        <v>-2279880.6</v>
       </c>
       <c r="R26" s="122">
         <f t="shared" si="11"/>
-        <v>-3521447.122</v>
+        <v>-2284409.9220000003</v>
       </c>
       <c r="S26" s="122">
         <f t="shared" si="11"/>
-        <v>-3521447.122</v>
+        <v>-2284409.9220000003</v>
       </c>
       <c r="T26" s="122">
         <f t="shared" si="11"/>
-        <v>-3539710.6140000001</v>
+        <v>-2302673.4140000003</v>
       </c>
       <c r="U26" s="122">
         <f t="shared" si="11"/>
-        <v>-3539710.6140000001</v>
+        <v>-2302673.4140000003</v>
       </c>
       <c r="V26" s="122">
         <f t="shared" si="11"/>
-        <v>-3539710.6140000001</v>
+        <v>-2302673.4140000003</v>
       </c>
       <c r="W26" s="122">
         <f t="shared" si="11"/>
-        <v>-3539710.6140000001</v>
+        <v>-2302673.4140000003</v>
       </c>
       <c r="X26" s="122">
         <f t="shared" si="11"/>
-        <v>-3536710.6140000001</v>
+        <v>-2299673.4140000003</v>
       </c>
       <c r="Y26" s="122">
         <f t="shared" si="11"/>
-        <v>-3536710.6140000001</v>
+        <v>-2299673.4140000003</v>
       </c>
       <c r="Z26" s="122">
         <f t="shared" si="11"/>
-        <v>-3536710.6140000001</v>
+        <v>-2299673.4140000003</v>
       </c>
       <c r="AA26" s="122">
         <f t="shared" si="11"/>
-        <v>-3536710.6140000001</v>
+        <v>-2299673.4140000003</v>
       </c>
       <c r="AB26" s="122">
         <f t="shared" si="11"/>
-        <v>-3536710.6140000001</v>
+        <v>-2299673.4140000003</v>
       </c>
       <c r="AC26" s="122">
         <f t="shared" si="11"/>
-        <v>-3536710.6140000001</v>
+        <v>-2299673.4140000003</v>
       </c>
       <c r="AD26" s="122">
         <f t="shared" si="11"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AE26" s="122">
         <f t="shared" si="11"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AF26" s="122">
         <f t="shared" si="11"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AG26" s="122">
         <f t="shared" si="11"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AH26" s="122">
         <f t="shared" si="11"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AI26" s="122">
         <f t="shared" si="11"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AJ26" s="122">
         <f t="shared" si="11"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AK26" s="122">
         <f t="shared" ref="AK26:BL26" si="12">AK13-AK25</f>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AL26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AM26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AN26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AO26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AP26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AQ26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AR26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AS26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AT26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AU26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AV26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AW26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AX26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AY26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="AZ26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BA26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BB26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BC26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BD26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BE26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BF26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BG26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BH26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BI26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BJ26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BK26" s="122">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
       <c r="BL26" s="123">
         <f t="shared" si="12"/>
-        <v>-3545861.8960000002</v>
+        <v>-2308824.6960000005</v>
       </c>
     </row>
     <row r="27" spans="1:227" s="45" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="C27" s="155">
         <f>C26/C9</f>
-        <v>-15.463854757959004</v>
+        <v>-10.069013065852594</v>
       </c>
       <c r="D27" s="149">
         <f>D26/D9</f>
@@ -8082,243 +8082,243 @@
       </c>
       <c r="E28" s="139">
         <f>E14-E25</f>
-        <v>-709329.39999999991</v>
+        <v>-306599.80000000005</v>
       </c>
       <c r="F28" s="39">
         <f t="shared" ref="F28:AJ28" si="13">F14-F25</f>
-        <v>-1043489.7999999998</v>
+        <v>-580630.20000000007</v>
       </c>
       <c r="G28" s="39">
         <f t="shared" si="13"/>
-        <v>-1463982.5999999999</v>
+        <v>-923675.00000000012</v>
       </c>
       <c r="H28" s="39">
         <f t="shared" si="13"/>
-        <v>-1704558.5999999999</v>
+        <v>-1087105.4000000001</v>
       </c>
       <c r="I28" s="39">
         <f t="shared" si="13"/>
-        <v>-1974685.7999999998</v>
+        <v>-1279784.6000000001</v>
       </c>
       <c r="J28" s="39">
         <f t="shared" si="13"/>
-        <v>-2215261.7999999998</v>
+        <v>-1442912.6</v>
       </c>
       <c r="K28" s="39">
         <f t="shared" si="13"/>
-        <v>-2455837.7999999998</v>
+        <v>-1606040.6</v>
       </c>
       <c r="L28" s="39">
         <f t="shared" si="13"/>
-        <v>-2684013.7999999998</v>
+        <v>-1756768.6</v>
       </c>
       <c r="M28" s="39">
         <f t="shared" si="13"/>
-        <v>-2924589.8</v>
+        <v>-1919896.6</v>
       </c>
       <c r="N28" s="39">
         <f t="shared" si="13"/>
-        <v>-3124385.8</v>
+        <v>-2042244.6</v>
       </c>
       <c r="O28" s="39">
         <f t="shared" si="13"/>
-        <v>-3364961.8</v>
+        <v>-2205372.6</v>
       </c>
       <c r="P28" s="39">
         <f t="shared" si="13"/>
-        <v>-3590997.8</v>
+        <v>-2353960.6</v>
       </c>
       <c r="Q28" s="39">
         <f t="shared" si="13"/>
-        <v>-3590997.8</v>
+        <v>-2353960.6</v>
       </c>
       <c r="R28" s="39">
         <f t="shared" si="13"/>
-        <v>-3594837.122</v>
+        <v>-2357799.9220000003</v>
       </c>
       <c r="S28" s="39">
         <f t="shared" si="13"/>
-        <v>-3594837.122</v>
+        <v>-2357799.9220000003</v>
       </c>
       <c r="T28" s="39">
         <f t="shared" si="13"/>
-        <v>-3613100.6140000001</v>
+        <v>-2376063.4140000003</v>
       </c>
       <c r="U28" s="39">
         <f t="shared" si="13"/>
-        <v>-3613100.6140000001</v>
+        <v>-2376063.4140000003</v>
       </c>
       <c r="V28" s="39">
         <f t="shared" si="13"/>
-        <v>-3613100.6140000001</v>
+        <v>-2376063.4140000003</v>
       </c>
       <c r="W28" s="39">
         <f t="shared" si="13"/>
-        <v>-3613100.6140000001</v>
+        <v>-2376063.4140000003</v>
       </c>
       <c r="X28" s="39">
         <f t="shared" si="13"/>
-        <v>-3613100.6140000001</v>
+        <v>-2376063.4140000003</v>
       </c>
       <c r="Y28" s="39">
         <f t="shared" si="13"/>
-        <v>-3613100.6140000001</v>
+        <v>-2376063.4140000003</v>
       </c>
       <c r="Z28" s="39">
         <f t="shared" si="13"/>
-        <v>-3610100.6140000001</v>
+        <v>-2373063.4140000003</v>
       </c>
       <c r="AA28" s="39">
         <f t="shared" si="13"/>
-        <v>-3610100.6140000001</v>
+        <v>-2373063.4140000003</v>
       </c>
       <c r="AB28" s="39">
         <f t="shared" si="13"/>
-        <v>-3610100.6140000001</v>
+        <v>-2373063.4140000003</v>
       </c>
       <c r="AC28" s="39">
         <f t="shared" si="13"/>
-        <v>-3610100.6140000001</v>
+        <v>-2373063.4140000003</v>
       </c>
       <c r="AD28" s="39">
         <f t="shared" si="13"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AE28" s="39">
         <f t="shared" si="13"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AF28" s="39">
         <f t="shared" si="13"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AG28" s="39">
         <f t="shared" si="13"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AH28" s="39">
         <f t="shared" si="13"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AI28" s="39">
         <f t="shared" si="13"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AJ28" s="39">
         <f t="shared" si="13"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AK28" s="39">
         <f t="shared" ref="AK28:BL28" si="14">AK14-AK25</f>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AL28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AM28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AN28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AO28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AP28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AQ28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AR28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AS28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AT28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AU28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AV28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AW28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AX28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AY28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="AZ28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BA28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BB28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BC28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BD28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BE28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BF28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BG28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BH28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BI28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BJ28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BK28" s="39">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
       <c r="BL28" s="40">
         <f t="shared" si="14"/>
-        <v>-3619251.8960000002</v>
+        <v>-2382214.6960000005</v>
       </c>
     </row>
     <row r="29" spans="1:227" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="C29" s="237">
         <f>(C26+C22)/C9</f>
-        <v>-15.403235481901438</v>
+        <v>-10.008393789795027</v>
       </c>
     </row>
     <row r="32" spans="1:227" x14ac:dyDescent="0.2">
@@ -9034,8 +9034,8 @@
   <dimension ref="A1:BM230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
+      <pane ySplit="10" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9073,15 +9073,15 @@
         <f>Forecast!G4</f>
         <v>PLN</v>
       </c>
-      <c r="D3" s="317" t="s">
+      <c r="D3" s="325" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="318"/>
-      <c r="F3" s="301" t="str">
+      <c r="E3" s="326"/>
+      <c r="F3" s="317" t="str">
         <f>Forecast!C2</f>
         <v>LEED Astoria Warsaw</v>
       </c>
-      <c r="G3" s="302"/>
+      <c r="G3" s="318"/>
       <c r="I3" s="1"/>
       <c r="J3" s="6" t="s">
         <v>1</v>
@@ -9096,15 +9096,15 @@
         <f>Forecast!G3</f>
         <v>27-02-2016</v>
       </c>
-      <c r="D4" s="317" t="s">
+      <c r="D4" s="325" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="318"/>
-      <c r="F4" s="301" t="str">
+      <c r="E4" s="326"/>
+      <c r="F4" s="317" t="str">
         <f>Forecast!C3</f>
         <v>240849-00</v>
       </c>
-      <c r="G4" s="302"/>
+      <c r="G4" s="318"/>
       <c r="I4" s="2"/>
       <c r="J4" s="6" t="s">
         <v>2</v>
@@ -9447,10 +9447,10 @@
     <row r="10" spans="1:65" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="73"/>
-      <c r="C10" s="303" t="s">
+      <c r="C10" s="319" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="320"/>
       <c r="E10" s="215"/>
       <c r="F10" s="92">
         <f>Forecast!E8</f>
@@ -9857,7 +9857,7 @@
       <c r="BM12" s="10"/>
     </row>
     <row r="13" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="307" t="s">
+      <c r="A13" s="301" t="s">
         <v>188</v>
       </c>
       <c r="B13" s="88" t="s">
@@ -10052,7 +10052,7 @@
       </c>
     </row>
     <row r="14" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="308"/>
+      <c r="A14" s="302"/>
       <c r="B14" s="76" t="s">
         <v>97</v>
       </c>
@@ -10062,44 +10062,20 @@
       <c r="D14" s="89"/>
       <c r="E14" s="227">
         <f>SUM(F14:BM14)</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="70">
-        <v>1</v>
-      </c>
-      <c r="G14" s="203">
-        <v>1</v>
-      </c>
-      <c r="H14" s="203">
-        <v>1</v>
-      </c>
-      <c r="I14" s="203">
-        <v>1</v>
-      </c>
-      <c r="J14" s="203">
-        <v>1</v>
-      </c>
-      <c r="K14" s="203">
-        <v>1</v>
-      </c>
-      <c r="L14" s="203">
-        <v>1</v>
-      </c>
-      <c r="M14" s="203">
-        <v>1</v>
-      </c>
-      <c r="N14" s="203">
-        <v>1</v>
-      </c>
-      <c r="O14" s="203">
-        <v>1</v>
-      </c>
-      <c r="P14" s="203">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="203">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
       <c r="R14" s="78"/>
       <c r="S14" s="78"/>
       <c r="T14" s="78"/>
@@ -10150,7 +10126,7 @@
       <c r="BM14" s="86"/>
     </row>
     <row r="15" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="308"/>
+      <c r="A15" s="302"/>
       <c r="B15" s="76" t="s">
         <v>98</v>
       </c>
@@ -10248,7 +10224,7 @@
       <c r="BM15" s="87"/>
     </row>
     <row r="16" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="308"/>
+      <c r="A16" s="302"/>
       <c r="B16" s="76" t="s">
         <v>99</v>
       </c>
@@ -10346,7 +10322,7 @@
       <c r="BM16" s="87"/>
     </row>
     <row r="17" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="308"/>
+      <c r="A17" s="302"/>
       <c r="B17" s="76" t="s">
         <v>100</v>
       </c>
@@ -10444,7 +10420,7 @@
       <c r="BM17" s="87"/>
     </row>
     <row r="18" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="308"/>
+      <c r="A18" s="302"/>
       <c r="B18" s="76" t="s">
         <v>101</v>
       </c>
@@ -10542,7 +10518,7 @@
       <c r="BM18" s="87"/>
     </row>
     <row r="19" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="308"/>
+      <c r="A19" s="302"/>
       <c r="B19" s="76" t="s">
         <v>102</v>
       </c>
@@ -10640,7 +10616,7 @@
       <c r="BM19" s="87"/>
     </row>
     <row r="20" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="308"/>
+      <c r="A20" s="302"/>
       <c r="B20" s="76" t="s">
         <v>103</v>
       </c>
@@ -10738,7 +10714,7 @@
       <c r="BM20" s="87"/>
     </row>
     <row r="21" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="308"/>
+      <c r="A21" s="302"/>
       <c r="B21" s="76" t="s">
         <v>104</v>
       </c>
@@ -10836,7 +10812,7 @@
       <c r="BM21" s="87"/>
     </row>
     <row r="22" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="308"/>
+      <c r="A22" s="302"/>
       <c r="B22" s="77" t="s">
         <v>105</v>
       </c>
@@ -10846,44 +10822,20 @@
       <c r="D22" s="4"/>
       <c r="E22" s="227">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F22" s="203">
-        <v>1</v>
-      </c>
-      <c r="G22" s="203">
-        <v>1</v>
-      </c>
-      <c r="H22" s="203">
-        <v>1</v>
-      </c>
-      <c r="I22" s="203">
-        <v>1</v>
-      </c>
-      <c r="J22" s="203">
-        <v>1</v>
-      </c>
-      <c r="K22" s="203">
-        <v>1</v>
-      </c>
-      <c r="L22" s="203">
-        <v>1</v>
-      </c>
-      <c r="M22" s="203">
-        <v>1</v>
-      </c>
-      <c r="N22" s="203">
-        <v>1</v>
-      </c>
-      <c r="O22" s="203">
-        <v>1</v>
-      </c>
-      <c r="P22" s="203">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="203">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="203"/>
+      <c r="O22" s="203"/>
+      <c r="P22" s="203"/>
+      <c r="Q22" s="203"/>
       <c r="R22" s="70"/>
       <c r="S22" s="70"/>
       <c r="T22" s="70"/>
@@ -10934,63 +10886,63 @@
       <c r="BM22" s="87"/>
     </row>
     <row r="23" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="308"/>
+      <c r="A23" s="302"/>
       <c r="B23" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="184">
         <f>SUM(F23:BM23)</f>
-        <v>68736</v>
+        <v>46608</v>
       </c>
       <c r="E23" s="229"/>
       <c r="F23" s="13">
         <f t="shared" ref="F23:BM23" si="1">$C14*(1+F$7)*F14+$C15*(1+F$7)*F15+$C16*(1+F$7)*F16+$C17*(1+F$7)*F17+$C18*(1+F$7)*F18+$C19*(1+F$7)*F19+$C20*(1+F$7)*F20+$C21*(1+F$7)*F21+$C22*(1+F$7)*F22</f>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="N23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="O23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="P23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="1"/>
-        <v>5728</v>
+        <v>3884</v>
       </c>
       <c r="R23" s="13">
         <f t="shared" si="1"/>
@@ -11186,7 +11138,7 @@
       </c>
     </row>
     <row r="24" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="308"/>
+      <c r="A24" s="302"/>
       <c r="B24" s="238" t="s">
         <v>193</v>
       </c>
@@ -11195,56 +11147,56 @@
       </c>
       <c r="D24" s="184">
         <f>SUM(F24:BM24)</f>
-        <v>123724.79999999997</v>
+        <v>83894.39999999998</v>
       </c>
       <c r="E24" s="229"/>
       <c r="F24" s="13">
         <f t="shared" ref="F24:BM24" si="2">$C24*F23</f>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="N24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="O24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="2"/>
-        <v>10310.4</v>
+        <v>6991.2</v>
       </c>
       <c r="R24" s="13">
         <f t="shared" si="2"/>
@@ -11440,7 +11392,7 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="308"/>
+      <c r="A25" s="302"/>
       <c r="B25" s="182" t="s">
         <v>164</v>
       </c>
@@ -11694,63 +11646,63 @@
       </c>
     </row>
     <row r="26" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="308"/>
+      <c r="A26" s="302"/>
       <c r="B26" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C26" s="90"/>
       <c r="D26" s="184">
         <f>SUM(F26:BM26)</f>
-        <v>192460.79999999996</v>
+        <v>130502.39999999998</v>
       </c>
       <c r="E26" s="230"/>
       <c r="F26" s="81">
         <f>SUM(F23:F25)</f>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="G26" s="81">
         <f t="shared" ref="G26:BM26" si="4">SUM(G23:G25)</f>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="H26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="I26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="J26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="K26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="L26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="M26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="N26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="O26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="P26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="Q26" s="81">
         <f t="shared" si="4"/>
-        <v>16038.4</v>
+        <v>10875.2</v>
       </c>
       <c r="R26" s="81">
         <f t="shared" si="4"/>
@@ -11947,7 +11899,7 @@
     </row>
     <row r="27" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:65" s="206" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="307" t="s">
+      <c r="A28" s="301" t="s">
         <v>206</v>
       </c>
       <c r="B28" s="88" t="s">
@@ -12142,7 +12094,7 @@
       </c>
     </row>
     <row r="29" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="308"/>
+      <c r="A29" s="302"/>
       <c r="B29" s="76" t="s">
         <v>97</v>
       </c>
@@ -12152,44 +12104,20 @@
       <c r="D29" s="201"/>
       <c r="E29" s="203">
         <f>SUM(F29:BM29)</f>
-        <v>24</v>
-      </c>
-      <c r="F29" s="203">
-        <v>2</v>
-      </c>
-      <c r="G29" s="203">
-        <v>2</v>
-      </c>
-      <c r="H29" s="203">
-        <v>2</v>
-      </c>
-      <c r="I29" s="203">
-        <v>2</v>
-      </c>
-      <c r="J29" s="203">
-        <v>2</v>
-      </c>
-      <c r="K29" s="203">
-        <v>2</v>
-      </c>
-      <c r="L29" s="203">
-        <v>2</v>
-      </c>
-      <c r="M29" s="203">
-        <v>2</v>
-      </c>
-      <c r="N29" s="203">
-        <v>2</v>
-      </c>
-      <c r="O29" s="203">
-        <v>2</v>
-      </c>
-      <c r="P29" s="203">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="203">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="203"/>
+      <c r="N29" s="203"/>
+      <c r="O29" s="203"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="203"/>
       <c r="R29" s="204"/>
       <c r="S29" s="204"/>
       <c r="T29" s="204"/>
@@ -12240,7 +12168,7 @@
       <c r="BM29" s="86"/>
     </row>
     <row r="30" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="308"/>
+      <c r="A30" s="302"/>
       <c r="B30" s="76" t="s">
         <v>98</v>
       </c>
@@ -12338,7 +12266,7 @@
       <c r="BM30" s="87"/>
     </row>
     <row r="31" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="308"/>
+      <c r="A31" s="302"/>
       <c r="B31" s="76" t="s">
         <v>99</v>
       </c>
@@ -12348,13 +12276,13 @@
       <c r="D31" s="201"/>
       <c r="E31" s="203">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F31" s="203">
         <v>2</v>
       </c>
       <c r="G31" s="203">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H31" s="203">
         <v>2</v>
@@ -12436,7 +12364,7 @@
       <c r="BM31" s="87"/>
     </row>
     <row r="32" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="308"/>
+      <c r="A32" s="302"/>
       <c r="B32" s="76" t="s">
         <v>100</v>
       </c>
@@ -12534,7 +12462,7 @@
       <c r="BM32" s="87"/>
     </row>
     <row r="33" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="308"/>
+      <c r="A33" s="302"/>
       <c r="B33" s="76" t="s">
         <v>101</v>
       </c>
@@ -12632,7 +12560,7 @@
       <c r="BM33" s="87"/>
     </row>
     <row r="34" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="308"/>
+      <c r="A34" s="302"/>
       <c r="B34" s="76" t="s">
         <v>102</v>
       </c>
@@ -12730,7 +12658,7 @@
       <c r="BM34" s="87"/>
     </row>
     <row r="35" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="308"/>
+      <c r="A35" s="302"/>
       <c r="B35" s="76" t="s">
         <v>103</v>
       </c>
@@ -12828,7 +12756,7 @@
       <c r="BM35" s="87"/>
     </row>
     <row r="36" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="308"/>
+      <c r="A36" s="302"/>
       <c r="B36" s="76" t="s">
         <v>104</v>
       </c>
@@ -12926,7 +12854,7 @@
       <c r="BM36" s="87"/>
     </row>
     <row r="37" spans="1:65" s="206" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="308"/>
+      <c r="A37" s="302"/>
       <c r="B37" s="77" t="s">
         <v>105</v>
       </c>
@@ -12936,44 +12864,20 @@
       <c r="D37" s="201"/>
       <c r="E37" s="203">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="F37" s="203">
-        <v>2</v>
-      </c>
-      <c r="G37" s="203">
-        <v>2</v>
-      </c>
-      <c r="H37" s="203">
-        <v>2</v>
-      </c>
-      <c r="I37" s="203">
-        <v>2</v>
-      </c>
-      <c r="J37" s="203">
-        <v>2</v>
-      </c>
-      <c r="K37" s="203">
-        <v>2</v>
-      </c>
-      <c r="L37" s="203">
-        <v>2</v>
-      </c>
-      <c r="M37" s="203">
-        <v>2</v>
-      </c>
-      <c r="N37" s="203">
-        <v>2</v>
-      </c>
-      <c r="O37" s="203">
-        <v>2</v>
-      </c>
-      <c r="P37" s="203">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="203">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="203"/>
+      <c r="K37" s="203"/>
+      <c r="L37" s="203"/>
+      <c r="M37" s="203"/>
+      <c r="N37" s="203"/>
+      <c r="O37" s="203"/>
+      <c r="P37" s="203"/>
+      <c r="Q37" s="203"/>
       <c r="R37" s="203"/>
       <c r="S37" s="203"/>
       <c r="T37" s="203"/>
@@ -13024,63 +12928,63 @@
       <c r="BM37" s="87"/>
     </row>
     <row r="38" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="308"/>
+      <c r="A38" s="302"/>
       <c r="B38" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="184">
         <f>SUM(F38:BM38)</f>
-        <v>137472</v>
+        <v>94608</v>
       </c>
       <c r="E38" s="229"/>
       <c r="F38" s="13">
         <f t="shared" ref="F38:I38" si="6">$C29*(1+F$7)*F29+$C30*(1+F$7)*F30+$C31*(1+F$7)*F31+$C32*(1+F$7)*F32+$C33*(1+F$7)*F33+$C34*(1+F$7)*F34+$C35*(1+F$7)*F35+$C36*(1+F$7)*F36+$C37*(1+F$7)*F37</f>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="6"/>
-        <v>11456</v>
+        <v>9160</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="6"/>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="I38" s="13">
         <f t="shared" si="6"/>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="J38" s="13">
         <f>$C29*(1+J$7)*J29+$C30*(1+J$7)*J30+$C31*(1+J$7)*J31+$C32*(1+J$7)*J32+$C33*(1+J$7)*J33+$C34*(1+J$7)*J34+$C35*(1+J$7)*J35+$C36*(1+J$7)*J36+$C37*(1+J$7)*J37</f>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="K38" s="13">
         <f>$C29*(1+K$7)*K29+$C30*(1+K$7)*K30+$C31*(1+K$7)*K31+$C32*(1+K$7)*K32+$C33*(1+K$7)*K33+$C34*(1+K$7)*K34+$C35*(1+K$7)*K35+$C36*(1+K$7)*K36+$C37*(1+K$7)*K37</f>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" ref="L38:N38" si="7">$C29*(1+L$7)*L29+$C30*(1+L$7)*L30+$C31*(1+L$7)*L31+$C32*(1+L$7)*L32+$C33*(1+L$7)*L33+$C34*(1+L$7)*L34+$C35*(1+L$7)*L35+$C36*(1+L$7)*L36+$C37*(1+L$7)*L37</f>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="7"/>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="N38" s="13">
         <f t="shared" si="7"/>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="O38" s="13">
         <f>$C29*(1+O$7)*O29+$C30*(1+O$7)*O30+$C31*(1+O$7)*O31+$C32*(1+O$7)*O32+$C33*(1+O$7)*O33+$C34*(1+O$7)*O34+$C35*(1+O$7)*O35+$C36*(1+O$7)*O36+$C37*(1+O$7)*O37</f>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="P38" s="13">
         <f>$C29*(1+P$7)*P29+$C30*(1+P$7)*P30+$C31*(1+P$7)*P31+$C32*(1+P$7)*P32+$C33*(1+P$7)*P33+$C34*(1+P$7)*P34+$C35*(1+P$7)*P35+$C36*(1+P$7)*P36+$C37*(1+P$7)*P37</f>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="Q38" s="13">
         <f t="shared" ref="Q38:BM38" si="8">$C29*(1+Q$7)*Q29+$C30*(1+Q$7)*Q30+$C31*(1+Q$7)*Q31+$C32*(1+Q$7)*Q32+$C33*(1+Q$7)*Q33+$C34*(1+Q$7)*Q34+$C35*(1+Q$7)*Q35+$C36*(1+Q$7)*Q36+$C37*(1+Q$7)*Q37</f>
-        <v>11456</v>
+        <v>7768</v>
       </c>
       <c r="R38" s="13">
         <f t="shared" si="8"/>
@@ -13276,7 +13180,7 @@
       </c>
     </row>
     <row r="39" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="308"/>
+      <c r="A39" s="302"/>
       <c r="B39" s="238" t="s">
         <v>193</v>
       </c>
@@ -13285,56 +13189,56 @@
       </c>
       <c r="D39" s="184">
         <f>SUM(F39:BM39)</f>
-        <v>247449.59999999995</v>
+        <v>170294.39999999997</v>
       </c>
       <c r="E39" s="229"/>
       <c r="F39" s="13">
         <f>$C39*F38</f>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" ref="G39:BM39" si="9">$C39*G38</f>
-        <v>20620.8</v>
+        <v>16488</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="N39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="P39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="9"/>
-        <v>20620.8</v>
+        <v>13982.4</v>
       </c>
       <c r="R39" s="13">
         <f t="shared" si="9"/>
@@ -13530,7 +13434,7 @@
       </c>
     </row>
     <row r="40" spans="1:65" s="206" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="308"/>
+      <c r="A40" s="302"/>
       <c r="B40" s="182" t="s">
         <v>164</v>
       </c>
@@ -13784,63 +13688,63 @@
       </c>
     </row>
     <row r="41" spans="1:65" s="206" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="308"/>
+      <c r="A41" s="302"/>
       <c r="B41" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C41" s="183"/>
       <c r="D41" s="184">
         <f>SUM(D38:D40)</f>
-        <v>384921.59999999998</v>
+        <v>264902.39999999997</v>
       </c>
       <c r="E41" s="229"/>
       <c r="F41" s="184">
         <f>SUM(F38:F40)</f>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="G41" s="184">
         <f t="shared" ref="G41:BM41" si="11">SUM(G38:G40)</f>
-        <v>32076.799999999999</v>
+        <v>25648</v>
       </c>
       <c r="H41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="I41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="J41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="K41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="L41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="M41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="N41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="O41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="P41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="Q41" s="184">
         <f t="shared" si="11"/>
-        <v>32076.799999999999</v>
+        <v>21750.400000000001</v>
       </c>
       <c r="R41" s="184">
         <f t="shared" si="11"/>
@@ -14039,7 +13943,7 @@
       <c r="E42" s="228"/>
     </row>
     <row r="43" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="307" t="s">
+      <c r="A43" s="301" t="s">
         <v>197</v>
       </c>
       <c r="B43" s="88" t="s">
@@ -14234,7 +14138,7 @@
       </c>
     </row>
     <row r="44" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A44" s="308"/>
+      <c r="A44" s="302"/>
       <c r="B44" s="76" t="s">
         <v>97</v>
       </c>
@@ -14244,44 +14148,20 @@
       <c r="D44" s="198"/>
       <c r="E44" s="203">
         <f>SUM(F44:BM44)</f>
-        <v>36</v>
-      </c>
-      <c r="F44" s="204">
-        <v>3</v>
-      </c>
-      <c r="G44" s="204">
-        <v>3</v>
-      </c>
-      <c r="H44" s="204">
-        <v>3</v>
-      </c>
-      <c r="I44" s="204">
-        <v>3</v>
-      </c>
-      <c r="J44" s="204">
-        <v>3</v>
-      </c>
-      <c r="K44" s="204">
-        <v>3</v>
-      </c>
-      <c r="L44" s="204">
-        <v>3</v>
-      </c>
-      <c r="M44" s="204">
-        <v>3</v>
-      </c>
-      <c r="N44" s="204">
-        <v>3</v>
-      </c>
-      <c r="O44" s="204">
-        <v>3</v>
-      </c>
-      <c r="P44" s="204">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="204">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F44" s="204"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="204"/>
+      <c r="I44" s="204"/>
+      <c r="J44" s="204"/>
+      <c r="K44" s="204"/>
+      <c r="L44" s="204"/>
+      <c r="M44" s="204"/>
+      <c r="N44" s="204"/>
+      <c r="O44" s="204"/>
+      <c r="P44" s="204"/>
+      <c r="Q44" s="204"/>
       <c r="R44" s="204"/>
       <c r="S44" s="204"/>
       <c r="T44" s="204"/>
@@ -14332,7 +14212,7 @@
       <c r="BM44" s="86"/>
     </row>
     <row r="45" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A45" s="308"/>
+      <c r="A45" s="302"/>
       <c r="B45" s="76" t="s">
         <v>98</v>
       </c>
@@ -14430,7 +14310,7 @@
       <c r="BM45" s="87"/>
     </row>
     <row r="46" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A46" s="308"/>
+      <c r="A46" s="302"/>
       <c r="B46" s="76" t="s">
         <v>99</v>
       </c>
@@ -14528,7 +14408,7 @@
       <c r="BM46" s="87"/>
     </row>
     <row r="47" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A47" s="308"/>
+      <c r="A47" s="302"/>
       <c r="B47" s="76" t="s">
         <v>100</v>
       </c>
@@ -14634,7 +14514,7 @@
       <c r="BM47" s="87"/>
     </row>
     <row r="48" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A48" s="308"/>
+      <c r="A48" s="302"/>
       <c r="B48" s="76" t="s">
         <v>101</v>
       </c>
@@ -14646,13 +14526,13 @@
       </c>
       <c r="E48" s="203">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" s="204">
         <v>3</v>
       </c>
       <c r="G48" s="204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" s="204">
         <v>3</v>
@@ -14740,7 +14620,7 @@
       <c r="BM48" s="87"/>
     </row>
     <row r="49" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A49" s="308"/>
+      <c r="A49" s="302"/>
       <c r="B49" s="76" t="s">
         <v>102</v>
       </c>
@@ -14838,7 +14718,7 @@
       <c r="BM49" s="87"/>
     </row>
     <row r="50" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A50" s="308"/>
+      <c r="A50" s="302"/>
       <c r="B50" s="76" t="s">
         <v>103</v>
       </c>
@@ -14944,7 +14824,7 @@
       <c r="BM50" s="87"/>
     </row>
     <row r="51" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A51" s="308"/>
+      <c r="A51" s="302"/>
       <c r="B51" s="76" t="s">
         <v>104</v>
       </c>
@@ -15046,7 +14926,7 @@
       <c r="BM51" s="87"/>
     </row>
     <row r="52" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="308"/>
+      <c r="A52" s="302"/>
       <c r="B52" s="77" t="s">
         <v>105</v>
       </c>
@@ -15056,44 +14936,20 @@
       <c r="D52" s="198"/>
       <c r="E52" s="203">
         <f t="shared" si="12"/>
-        <v>36</v>
-      </c>
-      <c r="F52" s="204">
-        <v>3</v>
-      </c>
-      <c r="G52" s="204">
-        <v>3</v>
-      </c>
-      <c r="H52" s="204">
-        <v>3</v>
-      </c>
-      <c r="I52" s="204">
-        <v>3</v>
-      </c>
-      <c r="J52" s="204">
-        <v>3</v>
-      </c>
-      <c r="K52" s="204">
-        <v>3</v>
-      </c>
-      <c r="L52" s="204">
-        <v>3</v>
-      </c>
-      <c r="M52" s="204">
-        <v>3</v>
-      </c>
-      <c r="N52" s="204">
-        <v>3</v>
-      </c>
-      <c r="O52" s="204">
-        <v>3</v>
-      </c>
-      <c r="P52" s="204">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="204">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
+      <c r="K52" s="204"/>
+      <c r="L52" s="204"/>
+      <c r="M52" s="204"/>
+      <c r="N52" s="204"/>
+      <c r="O52" s="204"/>
+      <c r="P52" s="204"/>
+      <c r="Q52" s="204"/>
       <c r="R52" s="203"/>
       <c r="S52" s="203"/>
       <c r="T52" s="203"/>
@@ -15144,63 +15000,63 @@
       <c r="BM52" s="87"/>
     </row>
     <row r="53" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A53" s="308"/>
+      <c r="A53" s="302"/>
       <c r="B53" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="184">
         <f>SUM(F53:BM53)</f>
-        <v>212652.32</v>
+        <v>146692.32</v>
       </c>
       <c r="E53" s="229"/>
       <c r="F53" s="13">
         <f t="shared" ref="F53:AK53" si="13">$C44*(1+F$7)*F44+$C45*(1+F$7)*F45+$C46*(1+F$7)*F46+$C47*(1+F$7)*F47+$C48*(1+F$7)*F48+$C49*(1+F$7)*F49+$C50*(1+F$7)*F50+$C51*(1+F$7)*F51+$C52*(1+F$7)*F52</f>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="13"/>
-        <v>17184</v>
+        <v>12076</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="13"/>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="I53" s="13">
         <f t="shared" si="13"/>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="J53" s="13">
         <f>$C44*(1+J$7)*J44+$C45*(1+J$7)*J45+$C46*(1+J$7)*J46+$C47*(1+J$7)*J47+$C48*(1+J$7)*J48+$C49*(1+J$7)*J49+$C50*(1+J$7)*J50+$C51*(1+J$7)*J51+$C52*(1+J$7)*J52</f>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="K53" s="13">
         <f>$C44*(1+K$7)*K44+$C45*(1+K$7)*K45+$C46*(1+K$7)*K46+$C47*(1+K$7)*K47+$C48*(1+K$7)*K48+$C49*(1+K$7)*K49+$C50*(1+K$7)*K50+$C51*(1+K$7)*K51+$C52*(1+K$7)*K52</f>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="L53" s="13">
         <f t="shared" si="13"/>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="M53" s="13">
         <f t="shared" si="13"/>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="N53" s="13">
         <f t="shared" si="13"/>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="O53" s="13">
         <f>$C44*(1+O$7)*O44+$C45*(1+O$7)*O45+$C46*(1+O$7)*O46+$C47*(1+O$7)*O47+$C48*(1+O$7)*O48+$C49*(1+O$7)*O49+$C50*(1+O$7)*O50+$C51*(1+O$7)*O51+$C52*(1+O$7)*O52</f>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="P53" s="13">
         <f>$C44*(1+P$7)*P44+$C45*(1+P$7)*P45+$C46*(1+P$7)*P46+$C47*(1+P$7)*P47+$C48*(1+P$7)*P48+$C49*(1+P$7)*P49+$C50*(1+P$7)*P50+$C51*(1+P$7)*P51+$C52*(1+P$7)*P52</f>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="Q53" s="13">
         <f t="shared" si="13"/>
-        <v>17184</v>
+        <v>11652</v>
       </c>
       <c r="R53" s="13">
         <f t="shared" si="13"/>
@@ -15396,7 +15252,7 @@
       </c>
     </row>
     <row r="54" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A54" s="308"/>
+      <c r="A54" s="302"/>
       <c r="B54" s="238" t="s">
         <v>193</v>
       </c>
@@ -15405,56 +15261,56 @@
       </c>
       <c r="D54" s="184">
         <f>SUM(F54:BM54)</f>
-        <v>382774.17600000009</v>
+        <v>264046.17600000004</v>
       </c>
       <c r="E54" s="229"/>
       <c r="F54" s="13">
         <f>$C54*F53</f>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="G54" s="13">
         <f t="shared" ref="G54:BM54" si="15">$C54*G53</f>
-        <v>30931.200000000001</v>
+        <v>21736.799999999999</v>
       </c>
       <c r="H54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="I54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="J54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="K54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="L54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="M54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="N54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="O54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="P54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="Q54" s="13">
         <f t="shared" si="15"/>
-        <v>30931.200000000001</v>
+        <v>20973.600000000002</v>
       </c>
       <c r="R54" s="13">
         <f t="shared" si="15"/>
@@ -15650,7 +15506,7 @@
       </c>
     </row>
     <row r="55" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="308"/>
+      <c r="A55" s="302"/>
       <c r="B55" s="182" t="s">
         <v>164</v>
       </c>
@@ -15904,63 +15760,63 @@
       </c>
     </row>
     <row r="56" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="308"/>
+      <c r="A56" s="302"/>
       <c r="B56" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C56" s="183"/>
       <c r="D56" s="184">
         <f>SUM(D53:D55)</f>
-        <v>595426.49600000004</v>
+        <v>410738.49600000004</v>
       </c>
       <c r="E56" s="229"/>
       <c r="F56" s="184">
         <f>SUM(F53:F55)</f>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="G56" s="184">
         <f t="shared" ref="G56:BM56" si="17">SUM(G53:G55)</f>
-        <v>48115.199999999997</v>
+        <v>33812.800000000003</v>
       </c>
       <c r="H56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="I56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="J56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="K56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="L56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="M56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="N56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="O56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="P56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="Q56" s="184">
         <f t="shared" si="17"/>
-        <v>48115.199999999997</v>
+        <v>32625.600000000002</v>
       </c>
       <c r="R56" s="184">
         <f t="shared" si="17"/>
@@ -16159,7 +16015,7 @@
       <c r="E57" s="228"/>
     </row>
     <row r="58" spans="1:65" s="206" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="307" t="s">
+      <c r="A58" s="301" t="s">
         <v>185</v>
       </c>
       <c r="B58" s="88" t="s">
@@ -16354,7 +16210,7 @@
       </c>
     </row>
     <row r="59" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="308"/>
+      <c r="A59" s="302"/>
       <c r="B59" s="76" t="s">
         <v>97</v>
       </c>
@@ -16364,44 +16220,20 @@
       <c r="D59" s="201"/>
       <c r="E59" s="203">
         <f>SUM(F59:BM59)</f>
-        <v>48</v>
-      </c>
-      <c r="F59" s="203">
-        <v>4</v>
-      </c>
-      <c r="G59" s="203">
-        <v>4</v>
-      </c>
-      <c r="H59" s="203">
-        <v>4</v>
-      </c>
-      <c r="I59" s="203">
-        <v>4</v>
-      </c>
-      <c r="J59" s="203">
-        <v>4</v>
-      </c>
-      <c r="K59" s="203">
-        <v>4</v>
-      </c>
-      <c r="L59" s="203">
-        <v>4</v>
-      </c>
-      <c r="M59" s="203">
-        <v>4</v>
-      </c>
-      <c r="N59" s="203">
-        <v>4</v>
-      </c>
-      <c r="O59" s="203">
-        <v>4</v>
-      </c>
-      <c r="P59" s="203">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="203">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F59" s="203"/>
+      <c r="G59" s="203"/>
+      <c r="H59" s="203"/>
+      <c r="I59" s="203"/>
+      <c r="J59" s="203"/>
+      <c r="K59" s="203"/>
+      <c r="L59" s="203"/>
+      <c r="M59" s="203"/>
+      <c r="N59" s="203"/>
+      <c r="O59" s="203"/>
+      <c r="P59" s="203"/>
+      <c r="Q59" s="203"/>
       <c r="R59" s="204"/>
       <c r="S59" s="204"/>
       <c r="T59" s="204"/>
@@ -16452,7 +16284,7 @@
       <c r="BM59" s="86"/>
     </row>
     <row r="60" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="308"/>
+      <c r="A60" s="302"/>
       <c r="B60" s="76" t="s">
         <v>98</v>
       </c>
@@ -16550,7 +16382,7 @@
       <c r="BM60" s="87"/>
     </row>
     <row r="61" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="308"/>
+      <c r="A61" s="302"/>
       <c r="B61" s="76" t="s">
         <v>99</v>
       </c>
@@ -16560,13 +16392,13 @@
       <c r="D61" s="201"/>
       <c r="E61" s="203">
         <f t="shared" si="18"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F61" s="203">
         <v>4</v>
       </c>
       <c r="G61" s="203">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H61" s="203">
         <v>4</v>
@@ -16648,7 +16480,7 @@
       <c r="BM61" s="87"/>
     </row>
     <row r="62" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="308"/>
+      <c r="A62" s="302"/>
       <c r="B62" s="76" t="s">
         <v>100</v>
       </c>
@@ -16748,7 +16580,7 @@
       <c r="BM62" s="87"/>
     </row>
     <row r="63" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="308"/>
+      <c r="A63" s="302"/>
       <c r="B63" s="76" t="s">
         <v>101</v>
       </c>
@@ -16846,7 +16678,7 @@
       <c r="BM63" s="87"/>
     </row>
     <row r="64" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="308"/>
+      <c r="A64" s="302"/>
       <c r="B64" s="76" t="s">
         <v>102</v>
       </c>
@@ -16944,7 +16776,7 @@
       <c r="BM64" s="87"/>
     </row>
     <row r="65" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="308"/>
+      <c r="A65" s="302"/>
       <c r="B65" s="76" t="s">
         <v>103</v>
       </c>
@@ -16954,19 +16786,19 @@
       <c r="D65" s="201"/>
       <c r="E65" s="203">
         <f t="shared" si="18"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F65" s="203">
         <v>4</v>
       </c>
       <c r="G65" s="203">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H65" s="203">
         <v>4</v>
       </c>
       <c r="I65" s="203">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J65" s="203">
         <v>4</v>
@@ -17042,7 +16874,7 @@
       <c r="BM65" s="87"/>
     </row>
     <row r="66" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="308"/>
+      <c r="A66" s="302"/>
       <c r="B66" s="76" t="s">
         <v>104</v>
       </c>
@@ -17140,7 +16972,7 @@
       <c r="BM66" s="87"/>
     </row>
     <row r="67" spans="1:65" s="206" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="308"/>
+      <c r="A67" s="302"/>
       <c r="B67" s="77" t="s">
         <v>105</v>
       </c>
@@ -17150,44 +16982,20 @@
       <c r="D67" s="201"/>
       <c r="E67" s="203">
         <f t="shared" si="18"/>
-        <v>48</v>
-      </c>
-      <c r="F67" s="203">
-        <v>4</v>
-      </c>
-      <c r="G67" s="203">
-        <v>4</v>
-      </c>
-      <c r="H67" s="203">
-        <v>4</v>
-      </c>
-      <c r="I67" s="203">
-        <v>4</v>
-      </c>
-      <c r="J67" s="203">
-        <v>4</v>
-      </c>
-      <c r="K67" s="203">
-        <v>4</v>
-      </c>
-      <c r="L67" s="203">
-        <v>4</v>
-      </c>
-      <c r="M67" s="203">
-        <v>4</v>
-      </c>
-      <c r="N67" s="203">
-        <v>4</v>
-      </c>
-      <c r="O67" s="203">
-        <v>4</v>
-      </c>
-      <c r="P67" s="203">
-        <v>4</v>
-      </c>
-      <c r="Q67" s="203">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F67" s="203"/>
+      <c r="G67" s="203"/>
+      <c r="H67" s="203"/>
+      <c r="I67" s="203"/>
+      <c r="J67" s="203"/>
+      <c r="K67" s="203"/>
+      <c r="L67" s="203"/>
+      <c r="M67" s="203"/>
+      <c r="N67" s="203"/>
+      <c r="O67" s="203"/>
+      <c r="P67" s="203"/>
+      <c r="Q67" s="203"/>
       <c r="R67" s="203"/>
       <c r="S67" s="203"/>
       <c r="T67" s="203"/>
@@ -17238,63 +17046,63 @@
       <c r="BM67" s="87"/>
     </row>
     <row r="68" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="308"/>
+      <c r="A68" s="302"/>
       <c r="B68" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="184">
         <f>SUM(F68:BM68)</f>
-        <v>274944</v>
+        <v>191935</v>
       </c>
       <c r="E68" s="229"/>
       <c r="F68" s="13">
         <f t="shared" ref="F68:I68" si="19">$C59*(1+F$7)*F59+$C60*(1+F$7)*F60+$C61*(1+F$7)*F61+$C62*(1+F$7)*F62+$C63*(1+F$7)*F63+$C64*(1+F$7)*F64+$C65*(1+F$7)*F65+$C66*(1+F$7)*F66+$C67*(1+F$7)*F67</f>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="G68" s="13">
         <f t="shared" si="19"/>
-        <v>22912</v>
+        <v>19209</v>
       </c>
       <c r="H68" s="13">
         <f t="shared" si="19"/>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="I68" s="13">
         <f t="shared" si="19"/>
-        <v>22912</v>
+        <v>17366</v>
       </c>
       <c r="J68" s="13">
         <f>$C59*(1+J$7)*J59+$C60*(1+J$7)*J60+$C61*(1+J$7)*J61+$C62*(1+J$7)*J62+$C63*(1+J$7)*J63+$C64*(1+J$7)*J64+$C65*(1+J$7)*J65+$C66*(1+J$7)*J66+$C67*(1+J$7)*J67</f>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="K68" s="13">
         <f>$C59*(1+K$7)*K59+$C60*(1+K$7)*K60+$C61*(1+K$7)*K61+$C62*(1+K$7)*K62+$C63*(1+K$7)*K63+$C64*(1+K$7)*K64+$C65*(1+K$7)*K65+$C66*(1+K$7)*K66+$C67*(1+K$7)*K67</f>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="L68" s="13">
         <f t="shared" ref="L68:N68" si="20">$C59*(1+L$7)*L59+$C60*(1+L$7)*L60+$C61*(1+L$7)*L61+$C62*(1+L$7)*L62+$C63*(1+L$7)*L63+$C64*(1+L$7)*L64+$C65*(1+L$7)*L65+$C66*(1+L$7)*L66+$C67*(1+L$7)*L67</f>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="M68" s="13">
         <f t="shared" si="20"/>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="N68" s="13">
         <f t="shared" si="20"/>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="O68" s="13">
         <f>$C59*(1+O$7)*O59+$C60*(1+O$7)*O60+$C61*(1+O$7)*O61+$C62*(1+O$7)*O62+$C63*(1+O$7)*O63+$C64*(1+O$7)*O64+$C65*(1+O$7)*O65+$C66*(1+O$7)*O66+$C67*(1+O$7)*O67</f>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="P68" s="13">
         <f>$C59*(1+P$7)*P59+$C60*(1+P$7)*P60+$C61*(1+P$7)*P61+$C62*(1+P$7)*P62+$C63*(1+P$7)*P63+$C64*(1+P$7)*P64+$C65*(1+P$7)*P65+$C66*(1+P$7)*P66+$C67*(1+P$7)*P67</f>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="Q68" s="13">
         <f t="shared" ref="Q68:AB68" si="21">$C59*(1+Q$7)*Q59+$C60*(1+Q$7)*Q60+$C61*(1+Q$7)*Q61+$C62*(1+Q$7)*Q62+$C63*(1+Q$7)*Q63+$C64*(1+Q$7)*Q64+$C65*(1+Q$7)*Q65+$C66*(1+Q$7)*Q66+$C67*(1+Q$7)*Q67</f>
-        <v>22912</v>
+        <v>15536</v>
       </c>
       <c r="R68" s="13">
         <f t="shared" si="21"/>
@@ -17490,7 +17298,7 @@
       </c>
     </row>
     <row r="69" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="308"/>
+      <c r="A69" s="302"/>
       <c r="B69" s="238" t="s">
         <v>193</v>
       </c>
@@ -17499,56 +17307,56 @@
       </c>
       <c r="D69" s="184">
         <f>SUM(F69:BM69)</f>
-        <v>494899.1999999999</v>
+        <v>345482.99999999994</v>
       </c>
       <c r="E69" s="229"/>
       <c r="F69" s="13">
         <f>$C69*F68</f>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="G69" s="13">
         <f t="shared" ref="G69:K69" si="23">$C69*G68</f>
-        <v>41241.599999999999</v>
+        <v>34576.200000000004</v>
       </c>
       <c r="H69" s="13">
         <f t="shared" si="23"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="I69" s="13">
         <f t="shared" si="23"/>
-        <v>41241.599999999999</v>
+        <v>31258.799999999999</v>
       </c>
       <c r="J69" s="13">
         <f t="shared" si="23"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="K69" s="13">
         <f t="shared" si="23"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="L69" s="13">
         <f t="shared" ref="L69:Q69" si="24">$C69*L68</f>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="M69" s="13">
         <f t="shared" si="24"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="N69" s="13">
         <f t="shared" si="24"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="O69" s="13">
         <f t="shared" si="24"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="P69" s="13">
         <f t="shared" si="24"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="Q69" s="13">
         <f t="shared" si="24"/>
-        <v>41241.599999999999</v>
+        <v>27964.799999999999</v>
       </c>
       <c r="R69" s="13">
         <f t="shared" ref="R69:W69" si="25">$C69*R68</f>
@@ -17744,7 +17552,7 @@
       </c>
     </row>
     <row r="70" spans="1:65" s="206" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="308"/>
+      <c r="A70" s="302"/>
       <c r="B70" s="182" t="s">
         <v>164</v>
       </c>
@@ -17998,63 +17806,63 @@
       </c>
     </row>
     <row r="71" spans="1:65" s="206" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="308"/>
+      <c r="A71" s="302"/>
       <c r="B71" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="183"/>
       <c r="D71" s="184">
         <f>SUM(D68:D70)</f>
-        <v>769843.19999999995</v>
+        <v>537418</v>
       </c>
       <c r="E71" s="229"/>
       <c r="F71" s="184">
         <f>SUM(F68:F70)</f>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="G71" s="184">
         <f t="shared" ref="G71:K71" si="43">SUM(G68:G70)</f>
-        <v>64153.599999999999</v>
+        <v>53785.200000000004</v>
       </c>
       <c r="H71" s="184">
         <f t="shared" si="43"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="I71" s="184">
         <f t="shared" si="43"/>
-        <v>64153.599999999999</v>
+        <v>48624.800000000003</v>
       </c>
       <c r="J71" s="184">
         <f t="shared" si="43"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="K71" s="184">
         <f t="shared" si="43"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="L71" s="184">
         <f t="shared" ref="L71:Q71" si="44">SUM(L68:L70)</f>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="M71" s="184">
         <f t="shared" si="44"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="N71" s="184">
         <f t="shared" si="44"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="O71" s="184">
         <f t="shared" si="44"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="P71" s="184">
         <f t="shared" si="44"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="Q71" s="184">
         <f t="shared" si="44"/>
-        <v>64153.599999999999</v>
+        <v>43500.800000000003</v>
       </c>
       <c r="R71" s="184">
         <f t="shared" ref="R71:W71" si="45">SUM(R68:R70)</f>
@@ -18317,7 +18125,7 @@
       <c r="BM72" s="218"/>
     </row>
     <row r="73" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="316" t="s">
+      <c r="A73" s="324" t="s">
         <v>207</v>
       </c>
       <c r="B73" s="17" t="s">
@@ -18326,56 +18134,56 @@
       <c r="C73" s="17"/>
       <c r="D73" s="184">
         <f>D53+D68</f>
-        <v>487596.32</v>
+        <v>338627.32</v>
       </c>
       <c r="E73" s="229"/>
       <c r="F73" s="13">
         <f>F53+F68</f>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="G73" s="13">
         <f t="shared" ref="G73:BM76" si="53">G53+G68</f>
-        <v>40096</v>
+        <v>31285</v>
       </c>
       <c r="H73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="I73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>29018</v>
       </c>
       <c r="J73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="K73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="L73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="M73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="N73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="O73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="P73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="Q73" s="13">
         <f t="shared" si="53"/>
-        <v>40096</v>
+        <v>27188</v>
       </c>
       <c r="R73" s="13">
         <f t="shared" si="53"/>
@@ -18571,7 +18379,7 @@
       </c>
     </row>
     <row r="74" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="316"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="238" t="s">
         <v>193</v>
       </c>
@@ -18580,56 +18388,56 @@
       </c>
       <c r="D74" s="184">
         <f t="shared" ref="D74:D76" si="54">D54+D69</f>
-        <v>877673.37599999993</v>
+        <v>609529.17599999998</v>
       </c>
       <c r="E74" s="229"/>
       <c r="F74" s="13">
         <f t="shared" ref="F74:U76" si="55">F54+F69</f>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="G74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>56313</v>
       </c>
       <c r="H74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="I74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>52232.4</v>
       </c>
       <c r="J74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="K74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="L74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="M74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="N74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="O74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="P74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="Q74" s="13">
         <f t="shared" si="55"/>
-        <v>72172.800000000003</v>
+        <v>48938.400000000001</v>
       </c>
       <c r="R74" s="13">
         <f t="shared" si="55"/>
@@ -18825,7 +18633,7 @@
       </c>
     </row>
     <row r="75" spans="1:65" s="206" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="316"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="182" t="s">
         <v>164</v>
       </c>
@@ -19079,63 +18887,63 @@
       </c>
     </row>
     <row r="76" spans="1:65" s="206" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="316"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C76" s="183"/>
       <c r="D76" s="184">
         <f t="shared" si="54"/>
-        <v>1365269.696</v>
+        <v>948156.49600000004</v>
       </c>
       <c r="E76" s="229"/>
       <c r="F76" s="13">
         <f t="shared" si="55"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="G76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>87598</v>
       </c>
       <c r="H76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="I76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>81250.400000000009</v>
       </c>
       <c r="J76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="K76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="L76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="M76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="N76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="O76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="P76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="Q76" s="13">
         <f t="shared" si="53"/>
-        <v>112268.79999999999</v>
+        <v>76126.400000000009</v>
       </c>
       <c r="R76" s="13">
         <f t="shared" si="53"/>
@@ -19398,7 +19206,7 @@
       <c r="BM77" s="218"/>
     </row>
     <row r="78" spans="1:65" s="206" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="307" t="s">
+      <c r="A78" s="301" t="s">
         <v>175</v>
       </c>
       <c r="B78" s="88" t="s">
@@ -19593,7 +19401,7 @@
       </c>
     </row>
     <row r="79" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="308"/>
+      <c r="A79" s="302"/>
       <c r="B79" s="76" t="s">
         <v>97</v>
       </c>
@@ -19603,44 +19411,20 @@
       <c r="D79" s="201"/>
       <c r="E79" s="203">
         <f>SUM(F79:BM79)</f>
-        <v>60</v>
-      </c>
-      <c r="F79" s="203">
-        <v>5</v>
-      </c>
-      <c r="G79" s="203">
-        <v>5</v>
-      </c>
-      <c r="H79" s="203">
-        <v>5</v>
-      </c>
-      <c r="I79" s="203">
-        <v>5</v>
-      </c>
-      <c r="J79" s="203">
-        <v>5</v>
-      </c>
-      <c r="K79" s="203">
-        <v>5</v>
-      </c>
-      <c r="L79" s="203">
-        <v>5</v>
-      </c>
-      <c r="M79" s="203">
-        <v>5</v>
-      </c>
-      <c r="N79" s="203">
-        <v>5</v>
-      </c>
-      <c r="O79" s="203">
-        <v>5</v>
-      </c>
-      <c r="P79" s="203">
-        <v>5</v>
-      </c>
-      <c r="Q79" s="203">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F79" s="203"/>
+      <c r="G79" s="203"/>
+      <c r="H79" s="203"/>
+      <c r="I79" s="203"/>
+      <c r="J79" s="203"/>
+      <c r="K79" s="203"/>
+      <c r="L79" s="203"/>
+      <c r="M79" s="203"/>
+      <c r="N79" s="203"/>
+      <c r="O79" s="203"/>
+      <c r="P79" s="203"/>
+      <c r="Q79" s="203"/>
       <c r="R79" s="204"/>
       <c r="S79" s="204"/>
       <c r="T79" s="204"/>
@@ -19691,7 +19475,7 @@
       <c r="BM79" s="86"/>
     </row>
     <row r="80" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="308"/>
+      <c r="A80" s="302"/>
       <c r="B80" s="76" t="s">
         <v>98</v>
       </c>
@@ -19789,7 +19573,7 @@
       <c r="BM80" s="87"/>
     </row>
     <row r="81" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="308"/>
+      <c r="A81" s="302"/>
       <c r="B81" s="76" t="s">
         <v>99</v>
       </c>
@@ -19799,13 +19583,13 @@
       <c r="D81" s="201"/>
       <c r="E81" s="203">
         <f t="shared" si="56"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F81" s="203">
         <v>5</v>
       </c>
       <c r="G81" s="203">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H81" s="203">
         <v>5</v>
@@ -19887,7 +19671,7 @@
       <c r="BM81" s="87"/>
     </row>
     <row r="82" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="308"/>
+      <c r="A82" s="302"/>
       <c r="B82" s="76" t="s">
         <v>100</v>
       </c>
@@ -19985,7 +19769,7 @@
       <c r="BM82" s="87"/>
     </row>
     <row r="83" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="308"/>
+      <c r="A83" s="302"/>
       <c r="B83" s="76" t="s">
         <v>101</v>
       </c>
@@ -20083,7 +19867,7 @@
       <c r="BM83" s="87"/>
     </row>
     <row r="84" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="308"/>
+      <c r="A84" s="302"/>
       <c r="B84" s="76" t="s">
         <v>102</v>
       </c>
@@ -20093,7 +19877,7 @@
       <c r="D84" s="201"/>
       <c r="E84" s="203">
         <f t="shared" si="56"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F84" s="203">
         <v>5</v>
@@ -20105,7 +19889,7 @@
         <v>5</v>
       </c>
       <c r="I84" s="203">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J84" s="203">
         <v>5</v>
@@ -20181,7 +19965,7 @@
       <c r="BM84" s="87"/>
     </row>
     <row r="85" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="308"/>
+      <c r="A85" s="302"/>
       <c r="B85" s="76" t="s">
         <v>103</v>
       </c>
@@ -20279,7 +20063,7 @@
       <c r="BM85" s="87"/>
     </row>
     <row r="86" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="308"/>
+      <c r="A86" s="302"/>
       <c r="B86" s="76" t="s">
         <v>104</v>
       </c>
@@ -20377,7 +20161,7 @@
       <c r="BM86" s="87"/>
     </row>
     <row r="87" spans="1:65" s="206" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="308"/>
+      <c r="A87" s="302"/>
       <c r="B87" s="77" t="s">
         <v>105</v>
       </c>
@@ -20387,44 +20171,20 @@
       <c r="D87" s="201"/>
       <c r="E87" s="203">
         <f t="shared" si="56"/>
-        <v>60</v>
-      </c>
-      <c r="F87" s="203">
-        <v>5</v>
-      </c>
-      <c r="G87" s="203">
-        <v>5</v>
-      </c>
-      <c r="H87" s="203">
-        <v>5</v>
-      </c>
-      <c r="I87" s="203">
-        <v>5</v>
-      </c>
-      <c r="J87" s="203">
-        <v>5</v>
-      </c>
-      <c r="K87" s="203">
-        <v>5</v>
-      </c>
-      <c r="L87" s="203">
-        <v>5</v>
-      </c>
-      <c r="M87" s="203">
-        <v>5</v>
-      </c>
-      <c r="N87" s="203">
-        <v>5</v>
-      </c>
-      <c r="O87" s="203">
-        <v>5</v>
-      </c>
-      <c r="P87" s="203">
-        <v>5</v>
-      </c>
-      <c r="Q87" s="203">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F87" s="203"/>
+      <c r="G87" s="203"/>
+      <c r="H87" s="203"/>
+      <c r="I87" s="203"/>
+      <c r="J87" s="203"/>
+      <c r="K87" s="203"/>
+      <c r="L87" s="203"/>
+      <c r="M87" s="203"/>
+      <c r="N87" s="203"/>
+      <c r="O87" s="203"/>
+      <c r="P87" s="203"/>
+      <c r="Q87" s="203"/>
       <c r="R87" s="203"/>
       <c r="S87" s="203"/>
       <c r="T87" s="203"/>
@@ -20475,63 +20235,63 @@
       <c r="BM87" s="87"/>
     </row>
     <row r="88" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="308"/>
+      <c r="A88" s="302"/>
       <c r="B88" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="184">
         <f>SUM(F88:BM88)</f>
-        <v>343680</v>
+        <v>232014</v>
       </c>
       <c r="E88" s="229"/>
       <c r="F88" s="13">
         <f t="shared" ref="F88:I88" si="57">$C79*(1+F$7)*F79+$C80*(1+F$7)*F80+$C81*(1+F$7)*F81+$C82*(1+F$7)*F82+$C83*(1+F$7)*F83+$C84*(1+F$7)*F84+$C85*(1+F$7)*F85+$C86*(1+F$7)*F86+$C87*(1+F$7)*F87</f>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="G88" s="13">
         <f t="shared" si="57"/>
-        <v>28640</v>
+        <v>20116</v>
       </c>
       <c r="H88" s="13">
         <f t="shared" si="57"/>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="I88" s="13">
         <f t="shared" si="57"/>
-        <v>28640</v>
+        <v>17698</v>
       </c>
       <c r="J88" s="13">
         <f>$C79*(1+J$7)*J79+$C80*(1+J$7)*J80+$C81*(1+J$7)*J81+$C82*(1+J$7)*J82+$C83*(1+J$7)*J83+$C84*(1+J$7)*J84+$C85*(1+J$7)*J85+$C86*(1+J$7)*J86+$C87*(1+J$7)*J87</f>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="K88" s="13">
         <f>$C79*(1+K$7)*K79+$C80*(1+K$7)*K80+$C81*(1+K$7)*K81+$C82*(1+K$7)*K82+$C83*(1+K$7)*K83+$C84*(1+K$7)*K84+$C85*(1+K$7)*K85+$C86*(1+K$7)*K86+$C87*(1+K$7)*K87</f>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="L88" s="13">
         <f t="shared" ref="L88:N88" si="58">$C79*(1+L$7)*L79+$C80*(1+L$7)*L80+$C81*(1+L$7)*L81+$C82*(1+L$7)*L82+$C83*(1+L$7)*L83+$C84*(1+L$7)*L84+$C85*(1+L$7)*L85+$C86*(1+L$7)*L86+$C87*(1+L$7)*L87</f>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="M88" s="13">
         <f t="shared" si="58"/>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="N88" s="13">
         <f t="shared" si="58"/>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="O88" s="13">
         <f>$C79*(1+O$7)*O79+$C80*(1+O$7)*O80+$C81*(1+O$7)*O81+$C82*(1+O$7)*O82+$C83*(1+O$7)*O83+$C84*(1+O$7)*O84+$C85*(1+O$7)*O85+$C86*(1+O$7)*O86+$C87*(1+O$7)*O87</f>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="P88" s="13">
         <f>$C79*(1+P$7)*P79+$C80*(1+P$7)*P80+$C81*(1+P$7)*P81+$C82*(1+P$7)*P82+$C83*(1+P$7)*P83+$C84*(1+P$7)*P84+$C85*(1+P$7)*P85+$C86*(1+P$7)*P86+$C87*(1+P$7)*P87</f>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="Q88" s="13">
         <f t="shared" ref="Q88:BM88" si="59">$C79*(1+Q$7)*Q79+$C80*(1+Q$7)*Q80+$C81*(1+Q$7)*Q81+$C82*(1+Q$7)*Q82+$C83*(1+Q$7)*Q83+$C84*(1+Q$7)*Q84+$C85*(1+Q$7)*Q85+$C86*(1+Q$7)*Q86+$C87*(1+Q$7)*Q87</f>
-        <v>28640</v>
+        <v>19420</v>
       </c>
       <c r="R88" s="13">
         <f t="shared" si="59"/>
@@ -20727,7 +20487,7 @@
       </c>
     </row>
     <row r="89" spans="1:65" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="308"/>
+      <c r="A89" s="302"/>
       <c r="B89" s="238" t="s">
         <v>193</v>
       </c>
@@ -20736,56 +20496,56 @@
       </c>
       <c r="D89" s="184">
         <f>SUM(F89:BM89)</f>
-        <v>618624</v>
+        <v>417625.2</v>
       </c>
       <c r="E89" s="229"/>
       <c r="F89" s="13">
         <f>$C89*F88</f>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="G89" s="13">
         <f t="shared" ref="G89:BM89" si="60">$C89*G88</f>
-        <v>51552</v>
+        <v>36208.800000000003</v>
       </c>
       <c r="H89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="I89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>31856.400000000001</v>
       </c>
       <c r="J89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="K89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="L89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="M89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="N89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="O89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="P89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="Q89" s="13">
         <f t="shared" si="60"/>
-        <v>51552</v>
+        <v>34956</v>
       </c>
       <c r="R89" s="13">
         <f t="shared" si="60"/>
@@ -20981,7 +20741,7 @@
       </c>
     </row>
     <row r="90" spans="1:65" s="206" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="308"/>
+      <c r="A90" s="302"/>
       <c r="B90" s="182" t="s">
         <v>164</v>
       </c>
@@ -21235,63 +20995,63 @@
       </c>
     </row>
     <row r="91" spans="1:65" s="206" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="308"/>
+      <c r="A91" s="302"/>
       <c r="B91" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C91" s="183"/>
       <c r="D91" s="184">
         <f>SUM(D88:D90)</f>
-        <v>962304</v>
+        <v>649639.19999999995</v>
       </c>
       <c r="E91" s="229"/>
       <c r="F91" s="184">
         <f>SUM(F88:F90)</f>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="G91" s="184">
         <f t="shared" ref="G91:BM91" si="62">SUM(G88:G90)</f>
-        <v>80192</v>
+        <v>56324.800000000003</v>
       </c>
       <c r="H91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="I91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>49554.400000000001</v>
       </c>
       <c r="J91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="K91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="L91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="M91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="N91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="O91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="P91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="Q91" s="184">
         <f t="shared" si="62"/>
-        <v>80192</v>
+        <v>54376</v>
       </c>
       <c r="R91" s="184">
         <f t="shared" si="62"/>
@@ -21490,65 +21250,65 @@
       <c r="E92" s="228"/>
     </row>
     <row r="93" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A93" s="309" t="s">
+      <c r="A93" s="321" t="s">
         <v>196</v>
       </c>
-      <c r="B93" s="312" t="s">
+      <c r="B93" s="315" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="313"/>
+      <c r="C93" s="316"/>
       <c r="D93" s="184">
         <f>D23+D73+D88+D38</f>
-        <v>1037484.3200000001</v>
+        <v>711857.32000000007</v>
       </c>
       <c r="E93" s="229"/>
       <c r="F93" s="184">
         <f t="shared" ref="F93:BM93" si="63">F23+F73+F88+F38</f>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="G93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>64445</v>
       </c>
       <c r="H93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="I93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58368</v>
       </c>
       <c r="J93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="K93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="L93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="M93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="N93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="O93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="P93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="Q93" s="184">
         <f t="shared" si="63"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="R93" s="184">
         <f t="shared" si="63"/>
@@ -21744,63 +21504,63 @@
       </c>
     </row>
     <row r="94" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A94" s="310"/>
+      <c r="A94" s="322"/>
       <c r="B94" s="305" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="306"/>
+      <c r="C94" s="304"/>
       <c r="D94" s="184">
         <f t="shared" ref="D94:D96" si="64">D24+D74+D89+D39</f>
-        <v>1867471.7759999998</v>
+        <v>1281343.176</v>
       </c>
       <c r="E94" s="229"/>
       <c r="F94" s="184">
         <f>F24+F74+F89+F39</f>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="G94" s="184">
         <f t="shared" ref="G94:BM94" si="65">G24+G74+G89+G39</f>
-        <v>154656</v>
+        <v>116001</v>
       </c>
       <c r="H94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="I94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>105062.39999999999</v>
       </c>
       <c r="J94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="K94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="L94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="M94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="N94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="O94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="P94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="Q94" s="184">
         <f t="shared" si="65"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="R94" s="184">
         <f t="shared" si="65"/>
@@ -21996,11 +21756,11 @@
       </c>
     </row>
     <row r="95" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="310"/>
+      <c r="A95" s="322"/>
       <c r="B95" s="305" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="306"/>
+      <c r="C95" s="304"/>
       <c r="D95" s="184">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -22248,63 +22008,63 @@
       </c>
     </row>
     <row r="96" spans="1:65" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="311"/>
-      <c r="B96" s="314" t="s">
+      <c r="A96" s="323"/>
+      <c r="B96" s="306" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="315"/>
+      <c r="C96" s="307"/>
       <c r="D96" s="184">
         <f t="shared" si="64"/>
-        <v>2904956.0960000004</v>
+        <v>1993200.4959999998</v>
       </c>
       <c r="E96" s="229"/>
       <c r="F96" s="184">
         <f>F26+F76+F91+F41</f>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="G96" s="184">
         <f t="shared" ref="G96:BM96" si="67">G26+G76+G91+G41</f>
-        <v>240575.99999999997</v>
+        <v>180446</v>
       </c>
       <c r="H96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="I96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163430.39999999999</v>
       </c>
       <c r="J96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="K96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="L96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="M96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="N96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="O96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="P96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="Q96" s="184">
         <f t="shared" si="67"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="R96" s="184">
         <f t="shared" si="67"/>
@@ -22501,7 +22261,7 @@
     </row>
     <row r="97" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="307" t="s">
+      <c r="A98" s="301" t="s">
         <v>187</v>
       </c>
       <c r="B98" s="88" t="s">
@@ -22696,7 +22456,7 @@
       </c>
     </row>
     <row r="99" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="308"/>
+      <c r="A99" s="302"/>
       <c r="B99" s="76" t="s">
         <v>97</v>
       </c>
@@ -22706,11 +22466,9 @@
       <c r="D99" s="89"/>
       <c r="E99" s="227">
         <f>SUM(F99:BM99)</f>
-        <v>6</v>
-      </c>
-      <c r="F99" s="70">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F99" s="70"/>
       <c r="G99" s="70"/>
       <c r="H99" s="70"/>
       <c r="I99" s="70"/>
@@ -22772,7 +22530,7 @@
       <c r="BM99" s="86"/>
     </row>
     <row r="100" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="308"/>
+      <c r="A100" s="302"/>
       <c r="B100" s="76" t="s">
         <v>98</v>
       </c>
@@ -22846,7 +22604,7 @@
       <c r="BM100" s="87"/>
     </row>
     <row r="101" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="308"/>
+      <c r="A101" s="302"/>
       <c r="B101" s="76" t="s">
         <v>99</v>
       </c>
@@ -22920,7 +22678,7 @@
       <c r="BM101" s="87"/>
     </row>
     <row r="102" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="308"/>
+      <c r="A102" s="302"/>
       <c r="B102" s="76" t="s">
         <v>100</v>
       </c>
@@ -22996,7 +22754,7 @@
       <c r="BM102" s="87"/>
     </row>
     <row r="103" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="308"/>
+      <c r="A103" s="302"/>
       <c r="B103" s="76" t="s">
         <v>101</v>
       </c>
@@ -23070,7 +22828,7 @@
       <c r="BM103" s="87"/>
     </row>
     <row r="104" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="308"/>
+      <c r="A104" s="302"/>
       <c r="B104" s="76" t="s">
         <v>102</v>
       </c>
@@ -23144,7 +22902,7 @@
       <c r="BM104" s="87"/>
     </row>
     <row r="105" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="308"/>
+      <c r="A105" s="302"/>
       <c r="B105" s="76" t="s">
         <v>103</v>
       </c>
@@ -23218,7 +22976,7 @@
       <c r="BM105" s="87"/>
     </row>
     <row r="106" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="308"/>
+      <c r="A106" s="302"/>
       <c r="B106" s="76" t="s">
         <v>104</v>
       </c>
@@ -23294,7 +23052,7 @@
       <c r="BM106" s="87"/>
     </row>
     <row r="107" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="308"/>
+      <c r="A107" s="302"/>
       <c r="B107" s="77" t="s">
         <v>105</v>
       </c>
@@ -23304,11 +23062,9 @@
       <c r="D107" s="4"/>
       <c r="E107" s="227">
         <f t="shared" si="68"/>
-        <v>6</v>
-      </c>
-      <c r="F107" s="70">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F107" s="70"/>
       <c r="G107" s="70"/>
       <c r="H107" s="70"/>
       <c r="I107" s="70"/>
@@ -23370,19 +23126,19 @@
       <c r="BM107" s="87"/>
     </row>
     <row r="108" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="308"/>
+      <c r="A108" s="302"/>
       <c r="B108" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="184">
         <f>SUM(F108:BM108)</f>
-        <v>20496</v>
+        <v>9432</v>
       </c>
       <c r="E108" s="229"/>
       <c r="F108" s="13">
         <f>$C99*(1+F$7)*F99+$C100*(1+F$7)*F100+$C101*(1+F$7)*F101+$C102*(1+F$7)*F102+$C103*(1+F$7)*F103+$C104*(1+F$7)*F104+$C105*(1+F$7)*F105+$C106*(1+F$7)*F106+$C107*(1+F$7)*F107</f>
-        <v>20496</v>
+        <v>9432</v>
       </c>
       <c r="G108" s="13">
         <f t="shared" ref="G108:BL108" si="69">$C99*(1+G$7)*G99+$C100*(1+G$7)*G100+$C101*(1+G$7)*G101+$C102*(1+G$7)*G102+$C103*(1+G$7)*G103+$C104*(1+G$7)*G104+$C105*(1+G$7)*G105+$C106*(1+G$7)*G106+$C107*(1+G$7)*G107</f>
@@ -23622,7 +23378,7 @@
       </c>
     </row>
     <row r="109" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="308"/>
+      <c r="A109" s="302"/>
       <c r="B109" s="238" t="s">
         <v>193</v>
       </c>
@@ -23631,12 +23387,12 @@
       </c>
       <c r="D109" s="184">
         <f>SUM(F109:BM109)</f>
-        <v>36892.800000000003</v>
+        <v>16977.600000000002</v>
       </c>
       <c r="E109" s="229"/>
       <c r="F109" s="13">
         <f>$C109*F108</f>
-        <v>36892.800000000003</v>
+        <v>16977.600000000002</v>
       </c>
       <c r="G109" s="13">
         <f t="shared" ref="G109:BM109" si="70">$C109*G108</f>
@@ -23876,7 +23632,7 @@
       </c>
     </row>
     <row r="110" spans="1:65" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="308"/>
+      <c r="A110" s="302"/>
       <c r="B110" s="182" t="s">
         <v>164</v>
       </c>
@@ -24130,19 +23886,19 @@
       </c>
     </row>
     <row r="111" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="308"/>
+      <c r="A111" s="302"/>
       <c r="B111" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C111" s="90"/>
       <c r="D111" s="184">
         <f>SUM(F111:BM111)</f>
-        <v>57388.800000000003</v>
+        <v>26409.600000000002</v>
       </c>
       <c r="E111" s="230"/>
       <c r="F111" s="81">
         <f>F108+F109+F110</f>
-        <v>57388.800000000003</v>
+        <v>26409.600000000002</v>
       </c>
       <c r="G111" s="81">
         <f>G108+G109+G110</f>
@@ -24449,7 +24205,7 @@
       <c r="BM112" s="253"/>
     </row>
     <row r="113" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="307" t="s">
+      <c r="A113" s="301" t="s">
         <v>205</v>
       </c>
       <c r="B113" s="88" t="s">
@@ -24644,7 +24400,7 @@
       </c>
     </row>
     <row r="114" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="308"/>
+      <c r="A114" s="302"/>
       <c r="B114" s="76" t="s">
         <v>97</v>
       </c>
@@ -24654,11 +24410,9 @@
       <c r="D114" s="201"/>
       <c r="E114" s="203">
         <f>SUM(F114:BM114)</f>
-        <v>7</v>
-      </c>
-      <c r="F114" s="203">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F114" s="203"/>
       <c r="G114" s="203"/>
       <c r="H114" s="203"/>
       <c r="I114" s="203"/>
@@ -24720,7 +24474,7 @@
       <c r="BM114" s="86"/>
     </row>
     <row r="115" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="308"/>
+      <c r="A115" s="302"/>
       <c r="B115" s="76" t="s">
         <v>98</v>
       </c>
@@ -24794,7 +24548,7 @@
       <c r="BM115" s="87"/>
     </row>
     <row r="116" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="308"/>
+      <c r="A116" s="302"/>
       <c r="B116" s="76" t="s">
         <v>99</v>
       </c>
@@ -24868,7 +24622,7 @@
       <c r="BM116" s="87"/>
     </row>
     <row r="117" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="308"/>
+      <c r="A117" s="302"/>
       <c r="B117" s="76" t="s">
         <v>100</v>
       </c>
@@ -24944,7 +24698,7 @@
       <c r="BM117" s="87"/>
     </row>
     <row r="118" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="308"/>
+      <c r="A118" s="302"/>
       <c r="B118" s="76" t="s">
         <v>101</v>
       </c>
@@ -25018,7 +24772,7 @@
       <c r="BM118" s="87"/>
     </row>
     <row r="119" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="308"/>
+      <c r="A119" s="302"/>
       <c r="B119" s="76" t="s">
         <v>102</v>
       </c>
@@ -25092,7 +24846,7 @@
       <c r="BM119" s="87"/>
     </row>
     <row r="120" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="308"/>
+      <c r="A120" s="302"/>
       <c r="B120" s="76" t="s">
         <v>103</v>
       </c>
@@ -25166,7 +24920,7 @@
       <c r="BM120" s="87"/>
     </row>
     <row r="121" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="308"/>
+      <c r="A121" s="302"/>
       <c r="B121" s="76" t="s">
         <v>104</v>
       </c>
@@ -25242,7 +24996,7 @@
       <c r="BM121" s="87"/>
     </row>
     <row r="122" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="308"/>
+      <c r="A122" s="302"/>
       <c r="B122" s="77" t="s">
         <v>105</v>
       </c>
@@ -25252,11 +25006,9 @@
       <c r="D122" s="201"/>
       <c r="E122" s="203">
         <f t="shared" si="73"/>
-        <v>7</v>
-      </c>
-      <c r="F122" s="203">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F122" s="203"/>
       <c r="G122" s="203"/>
       <c r="H122" s="203"/>
       <c r="I122" s="203"/>
@@ -25318,19 +25070,19 @@
       <c r="BM122" s="87"/>
     </row>
     <row r="123" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="308"/>
+      <c r="A123" s="302"/>
       <c r="B123" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="184">
         <f>SUM(F123:BM123)</f>
-        <v>23912</v>
+        <v>11004</v>
       </c>
       <c r="E123" s="229"/>
       <c r="F123" s="13">
         <f>$C114*(1+F$7)*F114+$C115*(1+F$7)*F115+$C116*(1+F$7)*F116+$C117*(1+F$7)*F117+$C118*(1+F$7)*F118+$C119*(1+F$7)*F119+$C120*(1+F$7)*F120+$C121*(1+F$7)*F121+$C122*(1+F$7)*F122</f>
-        <v>12908</v>
+        <v>0</v>
       </c>
       <c r="G123" s="13">
         <f>$C114*(1+G$7)*G114+$C115*(1+G$7)*G115+$C116*(1+G$7)*G116+$C117*(1+G$7)*G117+$C118*(1+G$7)*G118+$C119*(1+G$7)*G119+$C120*(1+G$7)*G120+$C121*(1+G$7)*G121+$C122*(1+G$7)*G122</f>
@@ -25570,7 +25322,7 @@
       </c>
     </row>
     <row r="124" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="308"/>
+      <c r="A124" s="302"/>
       <c r="B124" s="238" t="s">
         <v>193</v>
       </c>
@@ -25579,12 +25331,12 @@
       </c>
       <c r="D124" s="184">
         <f>SUM(F124:BM124)</f>
-        <v>43041.599999999999</v>
+        <v>19807.2</v>
       </c>
       <c r="E124" s="229"/>
       <c r="F124" s="13">
         <f>$C124*F123</f>
-        <v>23234.400000000001</v>
+        <v>0</v>
       </c>
       <c r="G124" s="13">
         <f t="shared" ref="G124:BM124" si="75">$C124*G123</f>
@@ -25824,7 +25576,7 @@
       </c>
     </row>
     <row r="125" spans="1:65" s="206" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="308"/>
+      <c r="A125" s="302"/>
       <c r="B125" s="182" t="s">
         <v>164</v>
       </c>
@@ -26078,14 +25830,14 @@
       </c>
     </row>
     <row r="126" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="308"/>
+      <c r="A126" s="302"/>
       <c r="B126" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C126" s="90"/>
       <c r="D126" s="184">
         <f>SUM(F126:BM126)</f>
-        <v>66953.600000000006</v>
+        <v>30811.200000000001</v>
       </c>
       <c r="E126" s="230">
         <f>+E116+E117+E120</f>
@@ -26093,7 +25845,7 @@
       </c>
       <c r="F126" s="81">
         <f>F123+F124+F125</f>
-        <v>36142.400000000001</v>
+        <v>0</v>
       </c>
       <c r="G126" s="81">
         <f>G123+G124+G125</f>
@@ -26400,7 +26152,7 @@
       <c r="BM127" s="253"/>
     </row>
     <row r="128" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="307" t="s">
+      <c r="A128" s="301" t="s">
         <v>204</v>
       </c>
       <c r="B128" s="88" t="s">
@@ -26595,7 +26347,7 @@
       </c>
     </row>
     <row r="129" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="308"/>
+      <c r="A129" s="302"/>
       <c r="B129" s="76" t="s">
         <v>97</v>
       </c>
@@ -26605,11 +26357,9 @@
       <c r="D129" s="201"/>
       <c r="E129" s="203">
         <f>SUM(F129:BM129)</f>
-        <v>8</v>
-      </c>
-      <c r="F129" s="203">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F129" s="203"/>
       <c r="G129" s="203"/>
       <c r="H129" s="203"/>
       <c r="I129" s="203"/>
@@ -26671,7 +26421,7 @@
       <c r="BM129" s="86"/>
     </row>
     <row r="130" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="308"/>
+      <c r="A130" s="302"/>
       <c r="B130" s="76" t="s">
         <v>98</v>
       </c>
@@ -26745,7 +26495,7 @@
       <c r="BM130" s="87"/>
     </row>
     <row r="131" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="308"/>
+      <c r="A131" s="302"/>
       <c r="B131" s="76" t="s">
         <v>99</v>
       </c>
@@ -26821,7 +26571,7 @@
       <c r="BM131" s="87"/>
     </row>
     <row r="132" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="308"/>
+      <c r="A132" s="302"/>
       <c r="B132" s="76" t="s">
         <v>100</v>
       </c>
@@ -26895,7 +26645,7 @@
       <c r="BM132" s="87"/>
     </row>
     <row r="133" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="308"/>
+      <c r="A133" s="302"/>
       <c r="B133" s="76" t="s">
         <v>101</v>
       </c>
@@ -26969,7 +26719,7 @@
       <c r="BM133" s="87"/>
     </row>
     <row r="134" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="308"/>
+      <c r="A134" s="302"/>
       <c r="B134" s="76" t="s">
         <v>102</v>
       </c>
@@ -27043,7 +26793,7 @@
       <c r="BM134" s="87"/>
     </row>
     <row r="135" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="308"/>
+      <c r="A135" s="302"/>
       <c r="B135" s="76" t="s">
         <v>103</v>
       </c>
@@ -27119,7 +26869,7 @@
       <c r="BM135" s="87"/>
     </row>
     <row r="136" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="308"/>
+      <c r="A136" s="302"/>
       <c r="B136" s="76" t="s">
         <v>104</v>
       </c>
@@ -27193,7 +26943,7 @@
       <c r="BM136" s="87"/>
     </row>
     <row r="137" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="308"/>
+      <c r="A137" s="302"/>
       <c r="B137" s="77" t="s">
         <v>105</v>
       </c>
@@ -27203,11 +26953,9 @@
       <c r="D137" s="201"/>
       <c r="E137" s="203">
         <f t="shared" si="78"/>
-        <v>16</v>
-      </c>
-      <c r="F137" s="203">
         <v>8</v>
       </c>
+      <c r="F137" s="203"/>
       <c r="G137" s="203"/>
       <c r="H137" s="203">
         <v>8</v>
@@ -27271,19 +27019,19 @@
       <c r="BM137" s="87"/>
     </row>
     <row r="138" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="308"/>
+      <c r="A138" s="302"/>
       <c r="B138" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="184">
         <f>SUM(F138:BM138)</f>
-        <v>37704</v>
+        <v>22952</v>
       </c>
       <c r="E138" s="229"/>
       <c r="F138" s="13">
         <f>$C129*(1+F$7)*F129+$C130*(1+F$7)*F130+$C131*(1+F$7)*F131+$C132*(1+F$7)*F132+$C133*(1+F$7)*F133+$C134*(1+F$7)*F134+$C135*(1+F$7)*F135+$C136*(1+F$7)*F136+$C137*(1+F$7)*F137</f>
-        <v>16608</v>
+        <v>1856</v>
       </c>
       <c r="G138" s="13">
         <f>$C129*(1+G$7)*G129+$C130*(1+G$7)*G130+$C131*(1+G$7)*G131+$C132*(1+G$7)*G132+$C133*(1+G$7)*G133+$C134*(1+G$7)*G134+$C135*(1+G$7)*G135+$C136*(1+G$7)*G136+$C137*(1+G$7)*G137</f>
@@ -27523,7 +27271,7 @@
       </c>
     </row>
     <row r="139" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="308"/>
+      <c r="A139" s="302"/>
       <c r="B139" s="238" t="s">
         <v>193</v>
       </c>
@@ -27532,12 +27280,12 @@
       </c>
       <c r="D139" s="184">
         <f>SUM(F139:BM139)</f>
-        <v>67867.199999999997</v>
+        <v>41313.599999999999</v>
       </c>
       <c r="E139" s="229"/>
       <c r="F139" s="13">
         <f>$C139*F138</f>
-        <v>29894.400000000001</v>
+        <v>3340.8</v>
       </c>
       <c r="G139" s="13">
         <f t="shared" ref="G139:BM139" si="80">$C139*G138</f>
@@ -27777,7 +27525,7 @@
       </c>
     </row>
     <row r="140" spans="1:65" s="206" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="308"/>
+      <c r="A140" s="302"/>
       <c r="B140" s="182" t="s">
         <v>164</v>
       </c>
@@ -28031,14 +27779,14 @@
       </c>
     </row>
     <row r="141" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="308"/>
+      <c r="A141" s="302"/>
       <c r="B141" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C141" s="90"/>
       <c r="D141" s="184">
         <f>SUM(F141:BM141)</f>
-        <v>105571.2</v>
+        <v>64265.600000000006</v>
       </c>
       <c r="E141" s="230">
         <f>+E131+E132+E135</f>
@@ -28046,7 +27794,7 @@
       </c>
       <c r="F141" s="81">
         <f>F138+F139+F140</f>
-        <v>46502.400000000001</v>
+        <v>5196.8</v>
       </c>
       <c r="G141" s="81">
         <f>G138+G139+G140</f>
@@ -28353,7 +28101,7 @@
       <c r="BM142" s="253"/>
     </row>
     <row r="143" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="307" t="s">
+      <c r="A143" s="301" t="s">
         <v>203</v>
       </c>
       <c r="B143" s="88" t="s">
@@ -28548,7 +28296,7 @@
       </c>
     </row>
     <row r="144" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="308"/>
+      <c r="A144" s="302"/>
       <c r="B144" s="76" t="s">
         <v>97</v>
       </c>
@@ -28558,11 +28306,9 @@
       <c r="D144" s="201"/>
       <c r="E144" s="203">
         <f>SUM(F144:BM144)</f>
-        <v>9</v>
-      </c>
-      <c r="F144" s="203">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F144" s="203"/>
       <c r="G144" s="203"/>
       <c r="H144" s="203"/>
       <c r="I144" s="203"/>
@@ -28624,7 +28370,7 @@
       <c r="BM144" s="86"/>
     </row>
     <row r="145" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="308"/>
+      <c r="A145" s="302"/>
       <c r="B145" s="76" t="s">
         <v>98</v>
       </c>
@@ -28698,7 +28444,7 @@
       <c r="BM145" s="87"/>
     </row>
     <row r="146" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="308"/>
+      <c r="A146" s="302"/>
       <c r="B146" s="76" t="s">
         <v>99</v>
       </c>
@@ -28772,7 +28518,7 @@
       <c r="BM146" s="87"/>
     </row>
     <row r="147" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="308"/>
+      <c r="A147" s="302"/>
       <c r="B147" s="76" t="s">
         <v>100</v>
       </c>
@@ -28848,7 +28594,7 @@
       <c r="BM147" s="87"/>
     </row>
     <row r="148" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="308"/>
+      <c r="A148" s="302"/>
       <c r="B148" s="76" t="s">
         <v>101</v>
       </c>
@@ -28922,7 +28668,7 @@
       <c r="BM148" s="87"/>
     </row>
     <row r="149" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="308"/>
+      <c r="A149" s="302"/>
       <c r="B149" s="76" t="s">
         <v>102</v>
       </c>
@@ -28996,7 +28742,7 @@
       <c r="BM149" s="87"/>
     </row>
     <row r="150" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="308"/>
+      <c r="A150" s="302"/>
       <c r="B150" s="76" t="s">
         <v>103</v>
       </c>
@@ -29072,7 +28818,7 @@
       <c r="BM150" s="87"/>
     </row>
     <row r="151" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="308"/>
+      <c r="A151" s="302"/>
       <c r="B151" s="76" t="s">
         <v>104</v>
       </c>
@@ -29150,7 +28896,7 @@
       <c r="BM151" s="87"/>
     </row>
     <row r="152" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="308"/>
+      <c r="A152" s="302"/>
       <c r="B152" s="77" t="s">
         <v>105</v>
       </c>
@@ -29160,11 +28906,9 @@
       <c r="D152" s="201"/>
       <c r="E152" s="203">
         <f t="shared" si="83"/>
-        <v>9</v>
-      </c>
-      <c r="F152" s="203">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F152" s="203"/>
       <c r="G152" s="203"/>
       <c r="H152" s="203"/>
       <c r="I152" s="203"/>
@@ -29226,19 +28970,19 @@
       <c r="BM152" s="87"/>
     </row>
     <row r="153" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="308"/>
+      <c r="A153" s="302"/>
       <c r="B153" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C153" s="17"/>
       <c r="D153" s="184">
         <f>SUM(F153:BM153)</f>
-        <v>50265</v>
+        <v>33669</v>
       </c>
       <c r="E153" s="229"/>
       <c r="F153" s="13">
         <f>$C144*(1+F$7)*F144+$C145*(1+F$7)*F145+$C146*(1+F$7)*F146+$C147*(1+F$7)*F147+$C148*(1+F$7)*F148+$C149*(1+F$7)*F149+$C150*(1+F$7)*F150+$C151*(1+F$7)*F151+$C152*(1+F$7)*F152</f>
-        <v>30744</v>
+        <v>14148</v>
       </c>
       <c r="G153" s="13">
         <f>$C144*(1+G$7)*G144+$C145*(1+G$7)*G145+$C146*(1+G$7)*G146+$C147*(1+G$7)*G147+$C148*(1+G$7)*G148+$C149*(1+G$7)*G149+$C150*(1+G$7)*G150+$C151*(1+G$7)*G151+$C152*(1+G$7)*G152</f>
@@ -29478,7 +29222,7 @@
       </c>
     </row>
     <row r="154" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="308"/>
+      <c r="A154" s="302"/>
       <c r="B154" s="238" t="s">
         <v>193</v>
       </c>
@@ -29487,12 +29231,12 @@
       </c>
       <c r="D154" s="184">
         <f>SUM(F154:BM154)</f>
-        <v>90477.000000000015</v>
+        <v>60604.2</v>
       </c>
       <c r="E154" s="229"/>
       <c r="F154" s="13">
         <f>$C154*F153</f>
-        <v>55339.200000000004</v>
+        <v>25466.400000000001</v>
       </c>
       <c r="G154" s="13">
         <f t="shared" ref="G154:BM154" si="85">$C154*G153</f>
@@ -29732,7 +29476,7 @@
       </c>
     </row>
     <row r="155" spans="1:65" s="206" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="308"/>
+      <c r="A155" s="302"/>
       <c r="B155" s="182" t="s">
         <v>164</v>
       </c>
@@ -29986,14 +29730,14 @@
       </c>
     </row>
     <row r="156" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="308"/>
+      <c r="A156" s="302"/>
       <c r="B156" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C156" s="90"/>
       <c r="D156" s="184">
         <f>SUM(F156:BM156)</f>
-        <v>140742</v>
+        <v>94273.2</v>
       </c>
       <c r="E156" s="230">
         <f>+E146+E147+E150</f>
@@ -30001,7 +29745,7 @@
       </c>
       <c r="F156" s="81">
         <f>F153+F154+F155</f>
-        <v>86083.200000000012</v>
+        <v>39614.400000000001</v>
       </c>
       <c r="G156" s="81">
         <f>G153+G154+G155</f>
@@ -30308,7 +30052,7 @@
       <c r="BM157" s="253"/>
     </row>
     <row r="158" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="307" t="s">
+      <c r="A158" s="301" t="s">
         <v>202</v>
       </c>
       <c r="B158" s="88" t="s">
@@ -30503,7 +30247,7 @@
       </c>
     </row>
     <row r="159" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="308"/>
+      <c r="A159" s="302"/>
       <c r="B159" s="76" t="s">
         <v>97</v>
       </c>
@@ -30513,11 +30257,9 @@
       <c r="D159" s="201"/>
       <c r="E159" s="203">
         <f>SUM(F159:BM159)</f>
-        <v>10</v>
-      </c>
-      <c r="F159" s="203">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F159" s="203"/>
       <c r="G159" s="203"/>
       <c r="H159" s="203"/>
       <c r="I159" s="203"/>
@@ -30579,7 +30321,7 @@
       <c r="BM159" s="86"/>
     </row>
     <row r="160" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="308"/>
+      <c r="A160" s="302"/>
       <c r="B160" s="76" t="s">
         <v>98</v>
       </c>
@@ -30655,7 +30397,7 @@
       <c r="BM160" s="87"/>
     </row>
     <row r="161" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="308"/>
+      <c r="A161" s="302"/>
       <c r="B161" s="76" t="s">
         <v>99</v>
       </c>
@@ -30729,7 +30471,7 @@
       <c r="BM161" s="87"/>
     </row>
     <row r="162" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="308"/>
+      <c r="A162" s="302"/>
       <c r="B162" s="76" t="s">
         <v>100</v>
       </c>
@@ -30803,7 +30545,7 @@
       <c r="BM162" s="87"/>
     </row>
     <row r="163" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="308"/>
+      <c r="A163" s="302"/>
       <c r="B163" s="76" t="s">
         <v>101</v>
       </c>
@@ -30881,7 +30623,7 @@
       <c r="BM163" s="87"/>
     </row>
     <row r="164" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="308"/>
+      <c r="A164" s="302"/>
       <c r="B164" s="76" t="s">
         <v>102</v>
       </c>
@@ -30955,7 +30697,7 @@
       <c r="BM164" s="87"/>
     </row>
     <row r="165" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="308"/>
+      <c r="A165" s="302"/>
       <c r="B165" s="76" t="s">
         <v>103</v>
       </c>
@@ -31029,7 +30771,7 @@
       <c r="BM165" s="87"/>
     </row>
     <row r="166" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="308"/>
+      <c r="A166" s="302"/>
       <c r="B166" s="76" t="s">
         <v>104</v>
       </c>
@@ -31103,7 +30845,7 @@
       <c r="BM166" s="87"/>
     </row>
     <row r="167" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="308"/>
+      <c r="A167" s="302"/>
       <c r="B167" s="77" t="s">
         <v>105</v>
       </c>
@@ -31113,11 +30855,9 @@
       <c r="D167" s="201"/>
       <c r="E167" s="203">
         <f t="shared" si="88"/>
-        <v>10</v>
-      </c>
-      <c r="F167" s="203">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F167" s="203"/>
       <c r="G167" s="203"/>
       <c r="H167" s="203"/>
       <c r="I167" s="203"/>
@@ -31179,19 +30919,19 @@
       <c r="BM167" s="87"/>
     </row>
     <row r="168" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="308"/>
+      <c r="A168" s="302"/>
       <c r="B168" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C168" s="17"/>
       <c r="D168" s="184">
         <f>SUM(F168:BM168)</f>
-        <v>28590</v>
+        <v>10150</v>
       </c>
       <c r="E168" s="229"/>
       <c r="F168" s="13">
         <f>$C159*(1+F$7)*F159+$C160*(1+F$7)*F160+$C161*(1+F$7)*F161+$C162*(1+F$7)*F162+$C163*(1+F$7)*F163+$C164*(1+F$7)*F164+$C165*(1+F$7)*F165+$C166*(1+F$7)*F166+$C167*(1+F$7)*F167</f>
-        <v>20110</v>
+        <v>1670</v>
       </c>
       <c r="G168" s="13">
         <f>$C159*(1+G$7)*G159+$C160*(1+G$7)*G160+$C161*(1+G$7)*G161+$C162*(1+G$7)*G162+$C163*(1+G$7)*G163+$C164*(1+G$7)*G164+$C165*(1+G$7)*G165+$C166*(1+G$7)*G166+$C167*(1+G$7)*G167</f>
@@ -31431,7 +31171,7 @@
       </c>
     </row>
     <row r="169" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="308"/>
+      <c r="A169" s="302"/>
       <c r="B169" s="238" t="s">
         <v>193</v>
       </c>
@@ -31440,12 +31180,12 @@
       </c>
       <c r="D169" s="184">
         <f>SUM(F169:BM169)</f>
-        <v>51462</v>
+        <v>18270</v>
       </c>
       <c r="E169" s="229"/>
       <c r="F169" s="13">
         <f>$C169*F168</f>
-        <v>36198</v>
+        <v>3006</v>
       </c>
       <c r="G169" s="13">
         <f t="shared" ref="G169:BM169" si="90">$C169*G168</f>
@@ -31685,7 +31425,7 @@
       </c>
     </row>
     <row r="170" spans="1:65" s="206" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="308"/>
+      <c r="A170" s="302"/>
       <c r="B170" s="182" t="s">
         <v>164</v>
       </c>
@@ -31939,14 +31679,14 @@
       </c>
     </row>
     <row r="171" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="308"/>
+      <c r="A171" s="302"/>
       <c r="B171" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C171" s="90"/>
       <c r="D171" s="184">
         <f>SUM(F171:BM171)</f>
-        <v>80052</v>
+        <v>28420</v>
       </c>
       <c r="E171" s="230">
         <f>+E161+E162+E165</f>
@@ -31954,7 +31694,7 @@
       </c>
       <c r="F171" s="81">
         <f>F168+F169+F170</f>
-        <v>56308</v>
+        <v>4676</v>
       </c>
       <c r="G171" s="81">
         <f>G168+G169+G170</f>
@@ -32261,7 +32001,7 @@
       <c r="BM172" s="253"/>
     </row>
     <row r="173" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="307" t="s">
+      <c r="A173" s="301" t="s">
         <v>201</v>
       </c>
       <c r="B173" s="88" t="s">
@@ -32456,7 +32196,7 @@
       </c>
     </row>
     <row r="174" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="308"/>
+      <c r="A174" s="302"/>
       <c r="B174" s="76" t="s">
         <v>97</v>
       </c>
@@ -32466,11 +32206,9 @@
       <c r="D174" s="201"/>
       <c r="E174" s="203">
         <f>SUM(F174:BM174)</f>
-        <v>11</v>
-      </c>
-      <c r="F174" s="203">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F174" s="203"/>
       <c r="G174" s="203"/>
       <c r="H174" s="203"/>
       <c r="I174" s="203"/>
@@ -32532,7 +32270,7 @@
       <c r="BM174" s="86"/>
     </row>
     <row r="175" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="308"/>
+      <c r="A175" s="302"/>
       <c r="B175" s="76" t="s">
         <v>98</v>
       </c>
@@ -32606,7 +32344,7 @@
       <c r="BM175" s="87"/>
     </row>
     <row r="176" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="308"/>
+      <c r="A176" s="302"/>
       <c r="B176" s="76" t="s">
         <v>99</v>
       </c>
@@ -32682,7 +32420,7 @@
       <c r="BM176" s="87"/>
     </row>
     <row r="177" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="308"/>
+      <c r="A177" s="302"/>
       <c r="B177" s="76" t="s">
         <v>100</v>
       </c>
@@ -32756,7 +32494,7 @@
       <c r="BM177" s="87"/>
     </row>
     <row r="178" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="308"/>
+      <c r="A178" s="302"/>
       <c r="B178" s="76" t="s">
         <v>101</v>
       </c>
@@ -32832,7 +32570,7 @@
       <c r="BM178" s="87"/>
     </row>
     <row r="179" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="308"/>
+      <c r="A179" s="302"/>
       <c r="B179" s="76" t="s">
         <v>102</v>
       </c>
@@ -32910,7 +32648,7 @@
       <c r="BM179" s="87"/>
     </row>
     <row r="180" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="308"/>
+      <c r="A180" s="302"/>
       <c r="B180" s="76" t="s">
         <v>103</v>
       </c>
@@ -32984,7 +32722,7 @@
       <c r="BM180" s="87"/>
     </row>
     <row r="181" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="308"/>
+      <c r="A181" s="302"/>
       <c r="B181" s="76" t="s">
         <v>104</v>
       </c>
@@ -33058,7 +32796,7 @@
       <c r="BM181" s="87"/>
     </row>
     <row r="182" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="308"/>
+      <c r="A182" s="302"/>
       <c r="B182" s="77" t="s">
         <v>105</v>
       </c>
@@ -33068,11 +32806,9 @@
       <c r="D182" s="201"/>
       <c r="E182" s="203">
         <f t="shared" si="93"/>
-        <v>11</v>
-      </c>
-      <c r="F182" s="203">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F182" s="203"/>
       <c r="G182" s="203"/>
       <c r="H182" s="203"/>
       <c r="I182" s="203"/>
@@ -33134,19 +32870,19 @@
       <c r="BM182" s="87"/>
     </row>
     <row r="183" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="308"/>
+      <c r="A183" s="302"/>
       <c r="B183" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C183" s="17"/>
       <c r="D183" s="184">
         <f>SUM(F183:BM183)</f>
-        <v>40128</v>
+        <v>19844</v>
       </c>
       <c r="E183" s="229"/>
       <c r="F183" s="13">
         <f>$C174*(1+F$7)*F174+$C175*(1+F$7)*F175+$C176*(1+F$7)*F176+$C177*(1+F$7)*F177+$C178*(1+F$7)*F178+$C179*(1+F$7)*F179+$C180*(1+F$7)*F180+$C181*(1+F$7)*F181+$C182*(1+F$7)*F182</f>
-        <v>22836</v>
+        <v>2552</v>
       </c>
       <c r="G183" s="13">
         <f>$C174*(1+G$7)*G174+$C175*(1+G$7)*G175+$C176*(1+G$7)*G176+$C177*(1+G$7)*G177+$C178*(1+G$7)*G178+$C179*(1+G$7)*G179+$C180*(1+G$7)*G180+$C181*(1+G$7)*G181+$C182*(1+G$7)*G182</f>
@@ -33386,7 +33122,7 @@
       </c>
     </row>
     <row r="184" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="308"/>
+      <c r="A184" s="302"/>
       <c r="B184" s="238" t="s">
         <v>193</v>
       </c>
@@ -33395,12 +33131,12 @@
       </c>
       <c r="D184" s="184">
         <f>SUM(F184:BM184)</f>
-        <v>72230.399999999994</v>
+        <v>35719.199999999997</v>
       </c>
       <c r="E184" s="229"/>
       <c r="F184" s="13">
         <f>$C184*F183</f>
-        <v>41104.800000000003</v>
+        <v>4593.6000000000004</v>
       </c>
       <c r="G184" s="13">
         <f t="shared" ref="G184:BM184" si="95">$C184*G183</f>
@@ -33640,7 +33376,7 @@
       </c>
     </row>
     <row r="185" spans="1:65" s="206" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="308"/>
+      <c r="A185" s="302"/>
       <c r="B185" s="182" t="s">
         <v>164</v>
       </c>
@@ -33894,14 +33630,14 @@
       </c>
     </row>
     <row r="186" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="308"/>
+      <c r="A186" s="302"/>
       <c r="B186" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C186" s="90"/>
       <c r="D186" s="184">
         <f>SUM(F186:BM186)</f>
-        <v>112358.39999999999</v>
+        <v>55563.199999999997</v>
       </c>
       <c r="E186" s="230">
         <f>+E176+E177+E180</f>
@@ -33909,7 +33645,7 @@
       </c>
       <c r="F186" s="81">
         <f>F183+F184+F185</f>
-        <v>63940.800000000003</v>
+        <v>7145.6</v>
       </c>
       <c r="G186" s="81">
         <f>G183+G184+G185</f>
@@ -34150,19 +33886,19 @@
     </row>
     <row r="187" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="188" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="320" t="s">
+      <c r="A188" s="308" t="s">
         <v>200</v>
       </c>
       <c r="B188" s="217"/>
       <c r="C188" s="249"/>
       <c r="D188" s="218">
         <f>D123+D138+D153+D168+D183</f>
-        <v>180599</v>
+        <v>97619</v>
       </c>
       <c r="E188" s="230"/>
       <c r="F188" s="250">
         <f>F123+F138+F153+F168+F183</f>
-        <v>103206</v>
+        <v>20226</v>
       </c>
       <c r="G188" s="250">
         <f t="shared" ref="G188:BM190" si="98">G123+G138+G153+G168+G183</f>
@@ -34402,17 +34138,17 @@
       </c>
     </row>
     <row r="189" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="321"/>
+      <c r="A189" s="309"/>
       <c r="B189" s="217"/>
       <c r="C189" s="249"/>
       <c r="D189" s="218">
         <f>D124+D139+D154+D169+D184</f>
-        <v>325078.19999999995</v>
+        <v>175714.2</v>
       </c>
       <c r="E189" s="230"/>
       <c r="F189" s="250">
         <f t="shared" ref="F189:U190" si="99">F124+F139+F154+F169+F184</f>
-        <v>185770.8</v>
+        <v>36406.800000000003</v>
       </c>
       <c r="G189" s="250">
         <f t="shared" si="99"/>
@@ -34652,7 +34388,7 @@
       </c>
     </row>
     <row r="190" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="322"/>
+      <c r="A190" s="310"/>
       <c r="B190" s="217"/>
       <c r="C190" s="249"/>
       <c r="D190" s="218">
@@ -34908,7 +34644,7 @@
       </c>
     </row>
     <row r="192" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="307" t="s">
+      <c r="A192" s="301" t="s">
         <v>198</v>
       </c>
       <c r="B192" s="88" t="s">
@@ -35103,7 +34839,7 @@
       </c>
     </row>
     <row r="193" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="308"/>
+      <c r="A193" s="302"/>
       <c r="B193" s="76" t="s">
         <v>97</v>
       </c>
@@ -35113,11 +34849,9 @@
       <c r="D193" s="89"/>
       <c r="E193" s="227">
         <f>SUM(F193:BM193)</f>
-        <v>12</v>
-      </c>
-      <c r="F193" s="70">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F193" s="70"/>
       <c r="G193" s="70"/>
       <c r="H193" s="70"/>
       <c r="I193" s="70"/>
@@ -35179,7 +34913,7 @@
       <c r="BM193" s="86"/>
     </row>
     <row r="194" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="308"/>
+      <c r="A194" s="302"/>
       <c r="B194" s="76" t="s">
         <v>98</v>
       </c>
@@ -35253,7 +34987,7 @@
       <c r="BM194" s="87"/>
     </row>
     <row r="195" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="308"/>
+      <c r="A195" s="302"/>
       <c r="B195" s="76" t="s">
         <v>99</v>
       </c>
@@ -35327,7 +35061,7 @@
       <c r="BM195" s="87"/>
     </row>
     <row r="196" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="308"/>
+      <c r="A196" s="302"/>
       <c r="B196" s="76" t="s">
         <v>100</v>
       </c>
@@ -35401,7 +35135,7 @@
       <c r="BM196" s="87"/>
     </row>
     <row r="197" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="308"/>
+      <c r="A197" s="302"/>
       <c r="B197" s="76" t="s">
         <v>101</v>
       </c>
@@ -35479,7 +35213,7 @@
       <c r="BM197" s="87"/>
     </row>
     <row r="198" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="308"/>
+      <c r="A198" s="302"/>
       <c r="B198" s="76" t="s">
         <v>102</v>
       </c>
@@ -35555,7 +35289,7 @@
       <c r="BM198" s="87"/>
     </row>
     <row r="199" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="308"/>
+      <c r="A199" s="302"/>
       <c r="B199" s="76" t="s">
         <v>103</v>
       </c>
@@ -35629,7 +35363,7 @@
       <c r="BM199" s="87"/>
     </row>
     <row r="200" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="308"/>
+      <c r="A200" s="302"/>
       <c r="B200" s="76" t="s">
         <v>104</v>
       </c>
@@ -35703,7 +35437,7 @@
       <c r="BM200" s="87"/>
     </row>
     <row r="201" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="308"/>
+      <c r="A201" s="302"/>
       <c r="B201" s="77" t="s">
         <v>105</v>
       </c>
@@ -35713,11 +35447,9 @@
       <c r="D201" s="4"/>
       <c r="E201" s="227">
         <f t="shared" si="101"/>
-        <v>24</v>
-      </c>
-      <c r="F201" s="70">
         <v>12</v>
       </c>
+      <c r="F201" s="70"/>
       <c r="G201" s="70"/>
       <c r="H201" s="70">
         <v>12</v>
@@ -35781,19 +35513,19 @@
       <c r="BM201" s="87"/>
     </row>
     <row r="202" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="308"/>
+      <c r="A202" s="302"/>
       <c r="B202" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C202" s="17"/>
       <c r="D202" s="184">
         <f>SUM(F202:BM202)</f>
-        <v>59856</v>
+        <v>37728</v>
       </c>
       <c r="E202" s="229"/>
       <c r="F202" s="13">
         <f>$C193*(1+F$7)*F193+$C194*(1+F$7)*F194+$C195*(1+F$7)*F195+$C196*(1+F$7)*F196+$C197*(1+F$7)*F197+$C198*(1+F$7)*F198+$C199*(1+F$7)*F199+$C200*(1+F$7)*F200+$C201*(1+F$7)*F201</f>
-        <v>29016</v>
+        <v>6888</v>
       </c>
       <c r="G202" s="13">
         <f t="shared" ref="G202:BL202" si="102">$C193*(1+G$7)*G193+$C194*(1+G$7)*G194+$C195*(1+G$7)*G195+$C196*(1+G$7)*G196+$C197*(1+G$7)*G197+$C198*(1+G$7)*G198+$C199*(1+G$7)*G199+$C200*(1+G$7)*G200+$C201*(1+G$7)*G201</f>
@@ -36033,7 +35765,7 @@
       </c>
     </row>
     <row r="203" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="308"/>
+      <c r="A203" s="302"/>
       <c r="B203" s="238" t="s">
         <v>193</v>
       </c>
@@ -36042,12 +35774,12 @@
       </c>
       <c r="D203" s="184">
         <f>SUM(F203:BM203)</f>
-        <v>107740.8</v>
+        <v>67910.399999999994</v>
       </c>
       <c r="E203" s="229"/>
       <c r="F203" s="13">
         <f>$C203*F202</f>
-        <v>52228.800000000003</v>
+        <v>12398.4</v>
       </c>
       <c r="G203" s="13">
         <f t="shared" ref="G203:BM203" si="103">$C203*G202</f>
@@ -36287,7 +36019,7 @@
       </c>
     </row>
     <row r="204" spans="1:65" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="308"/>
+      <c r="A204" s="302"/>
       <c r="B204" s="182" t="s">
         <v>164</v>
       </c>
@@ -36541,19 +36273,19 @@
       </c>
     </row>
     <row r="205" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="308"/>
+      <c r="A205" s="302"/>
       <c r="B205" s="181" t="s">
         <v>143</v>
       </c>
       <c r="C205" s="90"/>
       <c r="D205" s="184">
         <f>SUM(F205:BM205)</f>
-        <v>167596.79999999999</v>
+        <v>105638.40000000001</v>
       </c>
       <c r="E205" s="230"/>
       <c r="F205" s="81">
         <f>F202+F203+F204</f>
-        <v>81244.800000000003</v>
+        <v>19286.400000000001</v>
       </c>
       <c r="G205" s="81">
         <f>G202+G203+G204</f>
@@ -36796,7 +36528,7 @@
       <c r="E207" s="228"/>
     </row>
     <row r="208" spans="1:65" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="307" t="s">
+      <c r="A208" s="301" t="s">
         <v>199</v>
       </c>
       <c r="B208" s="88" t="s">
@@ -36991,7 +36723,7 @@
       </c>
     </row>
     <row r="209" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="308"/>
+      <c r="A209" s="302"/>
       <c r="B209" s="219" t="s">
         <v>176</v>
       </c>
@@ -36999,15 +36731,11 @@
       <c r="D209" s="209"/>
       <c r="E209" s="227">
         <f>SUM(F209:BM209)</f>
-        <v>26</v>
-      </c>
-      <c r="F209" s="203">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F209" s="203"/>
       <c r="G209" s="203"/>
-      <c r="H209" s="203">
-        <v>13</v>
-      </c>
+      <c r="H209" s="203"/>
       <c r="I209" s="203"/>
       <c r="J209" s="203"/>
       <c r="K209" s="203"/>
@@ -37067,7 +36795,7 @@
       <c r="BM209" s="86"/>
     </row>
     <row r="210" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="308"/>
+      <c r="A210" s="302"/>
       <c r="B210" s="219" t="s">
         <v>177</v>
       </c>
@@ -37139,7 +36867,7 @@
       <c r="BM210" s="87"/>
     </row>
     <row r="211" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="308"/>
+      <c r="A211" s="302"/>
       <c r="B211" s="219" t="s">
         <v>179</v>
       </c>
@@ -37211,7 +36939,7 @@
       <c r="BM211" s="87"/>
     </row>
     <row r="212" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="308"/>
+      <c r="A212" s="302"/>
       <c r="B212" s="219" t="s">
         <v>178</v>
       </c>
@@ -37287,7 +37015,7 @@
       <c r="BM212" s="87"/>
     </row>
     <row r="213" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="308"/>
+      <c r="A213" s="302"/>
       <c r="B213" s="219" t="s">
         <v>180</v>
       </c>
@@ -37361,7 +37089,7 @@
       <c r="BM213" s="87"/>
     </row>
     <row r="214" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="308"/>
+      <c r="A214" s="302"/>
       <c r="B214" s="219" t="s">
         <v>181</v>
       </c>
@@ -37433,7 +37161,7 @@
       <c r="BM214" s="87"/>
     </row>
     <row r="215" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="308"/>
+      <c r="A215" s="302"/>
       <c r="B215" s="219" t="s">
         <v>182</v>
       </c>
@@ -37505,7 +37233,7 @@
       <c r="BM215" s="87"/>
     </row>
     <row r="216" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="308"/>
+      <c r="A216" s="302"/>
       <c r="B216" s="219" t="s">
         <v>183</v>
       </c>
@@ -37577,7 +37305,7 @@
       <c r="BM216" s="87"/>
     </row>
     <row r="217" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="308"/>
+      <c r="A217" s="302"/>
       <c r="B217" s="220" t="s">
         <v>184</v>
       </c>
@@ -37585,11 +37313,9 @@
       <c r="D217" s="201"/>
       <c r="E217" s="227">
         <f t="shared" si="106"/>
-        <v>20</v>
-      </c>
-      <c r="F217" s="203">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F217" s="203"/>
       <c r="G217" s="203"/>
       <c r="H217" s="203"/>
       <c r="I217" s="203"/>
@@ -37651,7 +37377,7 @@
       <c r="BM217" s="87"/>
     </row>
     <row r="218" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="308"/>
+      <c r="A218" s="302"/>
       <c r="B218" s="17" t="s">
         <v>142</v>
       </c>
@@ -37903,7 +37629,7 @@
       </c>
     </row>
     <row r="219" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="308"/>
+      <c r="A219" s="302"/>
       <c r="B219" s="219" t="s">
         <v>189</v>
       </c>
@@ -38155,7 +37881,7 @@
       </c>
     </row>
     <row r="220" spans="1:65" s="206" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="308"/>
+      <c r="A220" s="302"/>
       <c r="B220" s="182" t="s">
         <v>164</v>
       </c>
@@ -38409,7 +38135,7 @@
       </c>
     </row>
     <row r="221" spans="1:65" s="206" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="323"/>
+      <c r="A221" s="311"/>
       <c r="B221" s="181" t="s">
         <v>143</v>
       </c>
@@ -38661,65 +38387,65 @@
       </c>
     </row>
     <row r="222" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A222" s="324" t="s">
+      <c r="A222" s="312" t="s">
         <v>167</v>
       </c>
-      <c r="B222" s="312" t="s">
+      <c r="B222" s="315" t="s">
         <v>165</v>
       </c>
-      <c r="C222" s="313"/>
+      <c r="C222" s="316"/>
       <c r="D222" s="184">
         <f>D93+D108+D188+D202+D218</f>
-        <v>1298435.32</v>
+        <v>856636.32000000007</v>
       </c>
       <c r="E222" s="229"/>
       <c r="F222" s="184">
         <f t="shared" ref="F222:AK222" si="111">F93+F108+F188+F202+F218</f>
-        <v>238638</v>
+        <v>94806</v>
       </c>
       <c r="G222" s="184">
         <f t="shared" si="111"/>
-        <v>119343</v>
+        <v>97868</v>
       </c>
       <c r="H222" s="184">
         <f t="shared" si="111"/>
-        <v>150176</v>
+        <v>122516</v>
       </c>
       <c r="I222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58368</v>
       </c>
       <c r="J222" s="184">
         <f t="shared" si="111"/>
-        <v>96474</v>
+        <v>68814</v>
       </c>
       <c r="K222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="L222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="M222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="N222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="O222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="P222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="Q222" s="184">
         <f t="shared" si="111"/>
-        <v>85920</v>
+        <v>58260</v>
       </c>
       <c r="R222" s="184">
         <f t="shared" si="111"/>
@@ -38915,63 +38641,63 @@
       </c>
     </row>
     <row r="223" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A223" s="325"/>
-      <c r="B223" s="319" t="s">
+      <c r="A223" s="313"/>
+      <c r="B223" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="C223" s="306"/>
+      <c r="C223" s="304"/>
       <c r="D223" s="184">
         <f>D94+D109+D189+D203+D219</f>
-        <v>2337183.5759999994</v>
+        <v>1541945.3759999999</v>
       </c>
       <c r="E223" s="229"/>
       <c r="F223" s="184">
         <f t="shared" ref="F223:AK223" si="113">F94+F109+F189+F203+F219</f>
-        <v>429548.39999999997</v>
+        <v>170650.80000000002</v>
       </c>
       <c r="G223" s="184">
         <f t="shared" si="113"/>
-        <v>214817.4</v>
+        <v>176162.4</v>
       </c>
       <c r="H223" s="184">
         <f t="shared" si="113"/>
-        <v>270316.79999999999</v>
+        <v>220528.80000000002</v>
       </c>
       <c r="I223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>105062.39999999999</v>
       </c>
       <c r="J223" s="184">
         <f t="shared" si="113"/>
-        <v>173653.2</v>
+        <v>123865.2</v>
       </c>
       <c r="K223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="L223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="M223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="N223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="O223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="P223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="Q223" s="184">
         <f t="shared" si="113"/>
-        <v>154656</v>
+        <v>104868</v>
       </c>
       <c r="R223" s="184">
         <f t="shared" si="113"/>
@@ -39167,11 +38893,11 @@
       </c>
     </row>
     <row r="224" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="325"/>
+      <c r="A224" s="313"/>
       <c r="B224" s="305" t="s">
         <v>159</v>
       </c>
-      <c r="C224" s="306"/>
+      <c r="C224" s="304"/>
       <c r="D224" s="184">
         <f>D95+D110+D190+D204+D220</f>
         <v>0</v>
@@ -39419,63 +39145,63 @@
       </c>
     </row>
     <row r="225" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="326"/>
-      <c r="B225" s="314" t="s">
+      <c r="A225" s="314"/>
+      <c r="B225" s="306" t="s">
         <v>160</v>
       </c>
-      <c r="C225" s="315"/>
+      <c r="C225" s="307"/>
       <c r="D225" s="184">
         <f>D96+D111+D191+D205+D221</f>
-        <v>3129941.696</v>
+        <v>2125248.4959999998</v>
       </c>
       <c r="E225" s="229"/>
       <c r="F225" s="184">
         <f t="shared" ref="F225:AK225" si="117">F96+F111+F191+F205+F221</f>
-        <v>379209.6</v>
+        <v>208824</v>
       </c>
       <c r="G225" s="184">
         <f t="shared" si="117"/>
-        <v>254822.39999999997</v>
+        <v>194692.4</v>
       </c>
       <c r="H225" s="184">
         <f t="shared" si="117"/>
-        <v>312681.59999999998</v>
+        <v>235233.6</v>
       </c>
       <c r="I225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163430.39999999999</v>
       </c>
       <c r="J225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="K225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="L225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="M225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="N225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="O225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="P225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="Q225" s="184">
         <f t="shared" si="117"/>
-        <v>240575.99999999997</v>
+        <v>163128</v>
       </c>
       <c r="R225" s="184">
         <f t="shared" si="117"/>
@@ -39675,20 +39401,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A98:A111"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="A113:A126"/>
-    <mergeCell ref="A128:A141"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A158:A171"/>
-    <mergeCell ref="A173:A186"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A208:A221"/>
-    <mergeCell ref="A192:A205"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:C222"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="C10:D10"/>
@@ -39705,6 +39417,20 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A28:A41"/>
+    <mergeCell ref="A98:A111"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="A113:A126"/>
+    <mergeCell ref="A128:A141"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A158:A171"/>
+    <mergeCell ref="A173:A186"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A208:A221"/>
+    <mergeCell ref="A192:A205"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:C222"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
@@ -44980,7 +44706,7 @@
     <row r="61" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D61" s="242">
         <f>SUM(F64:BM64)</f>
-        <v>-669431.96448000032</v>
+        <v>-439002.33381333383</v>
       </c>
       <c r="E61" s="243" t="s">
         <v>195</v>
@@ -44989,486 +44715,486 @@
     <row r="63" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="F63" s="190">
         <f>Forecast!E28*Expenses!$D$60/12</f>
-        <v>-2364.431333333333</v>
+        <v>-1021.9993333333335</v>
       </c>
       <c r="G63" s="190">
         <f>Forecast!F28*Expenses!$D$60/12</f>
-        <v>-3478.2993333333329</v>
+        <v>-1935.4340000000002</v>
       </c>
       <c r="H63" s="190">
         <f>Forecast!G28*Expenses!$D$60/12</f>
-        <v>-4879.942</v>
+        <v>-3078.9166666666674</v>
       </c>
       <c r="I63" s="190">
         <f>Forecast!H28*Expenses!$D$60/12</f>
-        <v>-5681.8620000000001</v>
+        <v>-3623.6846666666675</v>
       </c>
       <c r="J63" s="190">
         <f>Forecast!I28*Expenses!$D$60/12</f>
-        <v>-6582.2860000000001</v>
+        <v>-4265.9486666666671</v>
       </c>
       <c r="K63" s="190">
         <f>Forecast!J28*Expenses!$D$60/12</f>
-        <v>-7384.2059999999992</v>
+        <v>-4809.7086666666673</v>
       </c>
       <c r="L63" s="190">
         <f>Forecast!K28*Expenses!$D$60/12</f>
-        <v>-8186.1259999999993</v>
+        <v>-5353.4686666666666</v>
       </c>
       <c r="M63" s="190">
         <f>Forecast!L28*Expenses!$D$60/12</f>
-        <v>-8946.7126666666663</v>
+        <v>-5855.8953333333338</v>
       </c>
       <c r="N63" s="190">
         <f>Forecast!M28*Expenses!$D$60/12</f>
-        <v>-9748.6326666666664</v>
+        <v>-6399.6553333333331</v>
       </c>
       <c r="O63" s="190">
         <f>Forecast!N28*Expenses!$D$60/12</f>
-        <v>-10414.619333333334</v>
+        <v>-6807.482</v>
       </c>
       <c r="P63" s="190">
         <f>Forecast!O28*Expenses!$D$60/12</f>
-        <v>-11216.539333333334</v>
+        <v>-7351.2420000000011</v>
       </c>
       <c r="Q63" s="190">
         <f>Forecast!P28*Expenses!$D$60/12</f>
-        <v>-11969.992666666665</v>
+        <v>-7846.5353333333333</v>
       </c>
       <c r="R63" s="190">
         <f>Forecast!Q28*Expenses!$D$60/12</f>
-        <v>-11969.992666666665</v>
+        <v>-7846.5353333333333</v>
       </c>
       <c r="S63" s="190">
         <f>Forecast!R28*Expenses!$D$60/12</f>
-        <v>-11982.790406666667</v>
+        <v>-7859.3330733333341</v>
       </c>
       <c r="T63" s="190">
         <f>Forecast!S28*Expenses!$D$60/12</f>
-        <v>-11982.790406666667</v>
+        <v>-7859.3330733333341</v>
       </c>
       <c r="U63" s="190">
         <f>Forecast!T28*Expenses!$D$60/12</f>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="V63" s="190">
         <f>Forecast!U28*Expenses!$D$60/12</f>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="W63" s="190">
         <f>Forecast!V28*Expenses!$D$60/12</f>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="X63" s="190">
         <f>Forecast!W28*Expenses!$D$60/12</f>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="Y63" s="190">
         <f>Forecast!X28*Expenses!$D$60/12</f>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="Z63" s="190">
         <f>Forecast!Y28*Expenses!$D$60/12</f>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="AA63" s="190">
         <f>Forecast!Z28*Expenses!$D$60/12</f>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AB63" s="190">
         <f>Forecast!AA28*Expenses!$D$60/12</f>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AC63" s="190">
         <f>Forecast!AB28*Expenses!$D$60/12</f>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AD63" s="190">
         <f>Forecast!AC28*Expenses!$D$60/12</f>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AE63" s="190">
         <f>Forecast!AD28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AF63" s="190">
         <f>Forecast!AE28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AG63" s="190">
         <f>Forecast!AF28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AH63" s="190">
         <f>Forecast!AG28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AI63" s="190">
         <f>Forecast!AH28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AJ63" s="190">
         <f>Forecast!AI28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AK63" s="190">
         <f>Forecast!AJ28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AL63" s="190">
         <f>Forecast!AK28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AM63" s="190">
         <f>Forecast!AL28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AN63" s="190">
         <f>Forecast!AM28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AO63" s="190">
         <f>Forecast!AN28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AP63" s="190">
         <f>Forecast!AO28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AQ63" s="190">
         <f>Forecast!AP28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AR63" s="190">
         <f>Forecast!AQ28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AS63" s="190">
         <f>Forecast!AR28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AT63" s="190">
         <f>Forecast!AS28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AU63" s="190">
         <f>Forecast!AT28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AV63" s="190">
         <f>Forecast!AU28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AW63" s="190">
         <f>Forecast!AV28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AX63" s="190">
         <f>Forecast!AW28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AY63" s="190">
         <f>Forecast!AX28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AZ63" s="190">
         <f>Forecast!AY28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BA63" s="190">
         <f>Forecast!AZ28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BB63" s="190">
         <f>Forecast!BA28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BC63" s="190">
         <f>Forecast!BB28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BD63" s="190">
         <f>Forecast!BC28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BE63" s="190">
         <f>Forecast!BD28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BF63" s="190">
         <f>Forecast!BE28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BG63" s="190">
         <f>Forecast!BF28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BH63" s="190">
         <f>Forecast!BG28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BI63" s="190">
         <f>Forecast!BH28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BJ63" s="190">
         <f>Forecast!BI28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BK63" s="190">
         <f>Forecast!BJ28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BL63" s="190">
         <f>Forecast!BK28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BM63" s="190">
         <f>Forecast!BL28*Expenses!$D$60/12</f>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BN63" s="206"/>
     </row>
     <row r="64" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="F64">
         <f>IF(F63&lt;0,F63,0)</f>
-        <v>-2364.431333333333</v>
+        <v>-1021.9993333333335</v>
       </c>
       <c r="G64" s="206">
         <f t="shared" ref="G64:BM64" si="8">IF(G63&lt;0,G63,0)</f>
-        <v>-3478.2993333333329</v>
+        <v>-1935.4340000000002</v>
       </c>
       <c r="H64" s="206">
         <f t="shared" si="8"/>
-        <v>-4879.942</v>
+        <v>-3078.9166666666674</v>
       </c>
       <c r="I64" s="206">
         <f t="shared" si="8"/>
-        <v>-5681.8620000000001</v>
+        <v>-3623.6846666666675</v>
       </c>
       <c r="J64" s="206">
         <f t="shared" si="8"/>
-        <v>-6582.2860000000001</v>
+        <v>-4265.9486666666671</v>
       </c>
       <c r="K64" s="206">
         <f t="shared" si="8"/>
-        <v>-7384.2059999999992</v>
+        <v>-4809.7086666666673</v>
       </c>
       <c r="L64" s="206">
         <f t="shared" si="8"/>
-        <v>-8186.1259999999993</v>
+        <v>-5353.4686666666666</v>
       </c>
       <c r="M64" s="206">
         <f t="shared" si="8"/>
-        <v>-8946.7126666666663</v>
+        <v>-5855.8953333333338</v>
       </c>
       <c r="N64" s="206">
         <f t="shared" si="8"/>
-        <v>-9748.6326666666664</v>
+        <v>-6399.6553333333331</v>
       </c>
       <c r="O64" s="206">
         <f t="shared" si="8"/>
-        <v>-10414.619333333334</v>
+        <v>-6807.482</v>
       </c>
       <c r="P64" s="206">
         <f t="shared" si="8"/>
-        <v>-11216.539333333334</v>
+        <v>-7351.2420000000011</v>
       </c>
       <c r="Q64" s="206">
         <f t="shared" si="8"/>
-        <v>-11969.992666666665</v>
+        <v>-7846.5353333333333</v>
       </c>
       <c r="R64" s="206">
         <f t="shared" si="8"/>
-        <v>-11969.992666666665</v>
+        <v>-7846.5353333333333</v>
       </c>
       <c r="S64" s="206">
         <f t="shared" si="8"/>
-        <v>-11982.790406666667</v>
+        <v>-7859.3330733333341</v>
       </c>
       <c r="T64" s="206">
         <f t="shared" si="8"/>
-        <v>-11982.790406666667</v>
+        <v>-7859.3330733333341</v>
       </c>
       <c r="U64" s="206">
         <f t="shared" si="8"/>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="V64" s="206">
         <f t="shared" si="8"/>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="W64" s="206">
         <f t="shared" si="8"/>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="X64" s="206">
         <f t="shared" si="8"/>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="Y64" s="206">
         <f t="shared" si="8"/>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="Z64" s="206">
         <f t="shared" si="8"/>
-        <v>-12043.668713333334</v>
+        <v>-7920.2113800000016</v>
       </c>
       <c r="AA64" s="206">
         <f t="shared" si="8"/>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AB64" s="206">
         <f t="shared" si="8"/>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AC64" s="206">
         <f t="shared" si="8"/>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AD64" s="206">
         <f t="shared" si="8"/>
-        <v>-12033.668713333334</v>
+        <v>-7910.2113800000016</v>
       </c>
       <c r="AE64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AF64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AG64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AH64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AI64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AJ64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AK64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AL64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AM64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AN64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AO64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AP64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AQ64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AR64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AS64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AT64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AU64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AV64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AW64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AX64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AY64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="AZ64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BA64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BB64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BC64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BD64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BE64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BF64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BG64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BH64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BI64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BJ64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BK64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BL64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
       <c r="BM64" s="206">
         <f t="shared" si="8"/>
-        <v>-12064.172986666666</v>
+        <v>-7940.7156533333355</v>
       </c>
     </row>
   </sheetData>
